--- a/examples/wangetal2018/out/ResultFiles/AC_1.0_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_1.0_a.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="249">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -333,6 +339,18 @@
     <t>C_0_1</t>
   </si>
   <si>
+    <t>C_0_2</t>
+  </si>
+  <si>
+    <t>C_0_3</t>
+  </si>
+  <si>
+    <t>C_0_4</t>
+  </si>
+  <si>
+    <t>C_0_5</t>
+  </si>
+  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -348,6 +366,24 @@
     <t>C_1_3</t>
   </si>
   <si>
+    <t>C_1_4</t>
+  </si>
+  <si>
+    <t>C_1_5</t>
+  </si>
+  <si>
+    <t>C_1_6</t>
+  </si>
+  <si>
+    <t>C_1_7</t>
+  </si>
+  <si>
+    <t>C_1_8</t>
+  </si>
+  <si>
+    <t>C_1_9</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -357,9 +393,21 @@
     <t>C_2_1</t>
   </si>
   <si>
+    <t>C_2_2</t>
+  </si>
+  <si>
     <t>CS3</t>
   </si>
   <si>
+    <t>C_3_0</t>
+  </si>
+  <si>
+    <t>C_3_1</t>
+  </si>
+  <si>
+    <t>C_3_2</t>
+  </si>
+  <si>
     <t>Pipe segment</t>
   </si>
   <si>
@@ -411,10 +459,19 @@
     <t>PI01_pre_C_0_0</t>
   </si>
   <si>
+    <t>PI01_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI01_pre_C_0_2</t>
+  </si>
+  <si>
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_1</t>
+    <t>PI02_pre_C_0_4</t>
+  </si>
+  <si>
+    <t>PI02_pre_C_0_5</t>
   </si>
   <si>
     <t>PI02_remaining</t>
@@ -423,19 +480,37 @@
     <t>PI03_pre_C_1_0</t>
   </si>
   <si>
+    <t>PI03_pre_C_1_1</t>
+  </si>
+  <si>
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_1</t>
-  </si>
-  <si>
     <t>PI04_pre_C_1_2</t>
   </si>
   <si>
+    <t>PI04_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_5</t>
+  </si>
+  <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_3</t>
+    <t>PI05_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_9</t>
   </si>
   <si>
     <t>PI05_remaining</t>
@@ -447,16 +522,22 @@
     <t>PI06_remaining</t>
   </si>
   <si>
-    <t>PI07_pre_C_2_1</t>
+    <t>PI07_pre_C_2_2</t>
   </si>
   <si>
     <t>PI07_remaining</t>
   </si>
   <si>
-    <t>PI08</t>
-  </si>
-  <si>
-    <t>PI09</t>
+    <t>PI08_pre_C_3_0</t>
+  </si>
+  <si>
+    <t>PI08_remaining</t>
+  </si>
+  <si>
+    <t>PI09_pre_C_3_2</t>
+  </si>
+  <si>
+    <t>PI09_remaining</t>
   </si>
   <si>
     <t>N01</t>
@@ -465,82 +546,157 @@
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N_post_C_0_1</t>
+  </si>
+  <si>
+    <t>N_post_C_0_2</t>
+  </si>
+  <si>
+    <t>N_post_C_0_3</t>
+  </si>
+  <si>
+    <t>N_post_C_0_4</t>
+  </si>
+  <si>
+    <t>N_post_C_0_5</t>
+  </si>
+  <si>
+    <t>N03_C</t>
+  </si>
+  <si>
+    <t>N_post_C_1_0</t>
+  </si>
+  <si>
+    <t>N_post_C_1_1</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>N_post_C_1_2</t>
+  </si>
+  <si>
+    <t>N_post_C_1_3</t>
+  </si>
+  <si>
+    <t>N_post_C_1_4</t>
+  </si>
+  <si>
+    <t>N_post_C_1_5</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>N_post_C_1_6</t>
+  </si>
+  <si>
+    <t>N_post_C_1_7</t>
+  </si>
+  <si>
+    <t>N_post_C_1_8</t>
+  </si>
+  <si>
+    <t>N_post_C_1_9</t>
+  </si>
+  <si>
+    <t>N06_C</t>
+  </si>
+  <si>
+    <t>N_post_C_2_0</t>
+  </si>
+  <si>
+    <t>N_post_C_2_1</t>
+  </si>
+  <si>
+    <t>N_post_C_2_2</t>
+  </si>
+  <si>
+    <t>N08_C</t>
+  </si>
+  <si>
+    <t>N_post_C_3_0</t>
+  </si>
+  <si>
+    <t>N_post_C_3_1</t>
+  </si>
+  <si>
+    <t>N_post_C_3_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_2</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
-    <t>N_post_C_0_1</t>
-  </si>
-  <si>
-    <t>N03_C</t>
-  </si>
-  <si>
-    <t>N_post_C_1_0</t>
-  </si>
-  <si>
-    <t>N04</t>
-  </si>
-  <si>
-    <t>N_post_C_1_1</t>
-  </si>
-  <si>
-    <t>N_post_C_1_2</t>
-  </si>
-  <si>
-    <t>N05</t>
-  </si>
-  <si>
-    <t>N_post_C_1_3</t>
-  </si>
-  <si>
-    <t>N06_C</t>
-  </si>
-  <si>
-    <t>N_post_C_2_0</t>
+    <t>N_pre_C_0_4</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_5</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_5</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_9</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N_pre_C_2_0</t>
   </si>
   <si>
     <t>N07</t>
   </si>
   <si>
-    <t>N_post_C_2_1</t>
-  </si>
-  <si>
-    <t>N08_C</t>
+    <t>N_pre_C_2_2</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N_pre_C_3_0</t>
   </si>
   <si>
     <t>N09</t>
   </si>
   <si>
-    <t>N_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_0_1</t>
-  </si>
-  <si>
-    <t>N03</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_1</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>N06</t>
-  </si>
-  <si>
-    <t>N_pre_C_2_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_2_1</t>
-  </si>
-  <si>
-    <t>N08</t>
+    <t>N_pre_C_3_2</t>
   </si>
   <si>
     <t>N10</t>
@@ -573,7 +729,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1215,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1237,10 +1393,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>1.512455757790639</v>
+        <v>3.077596208386873</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1251,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1259,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.1077787111396994</v>
+        <v>0.2794849070857199</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1270,10 +1426,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03637262036402725</v>
+        <v>0.03699322731180928</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1284,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1292,10 +1448,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.007516163447989507</v>
+        <v>0.007644407803491066</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1303,10 +1459,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01781940330376076</v>
+        <v>0.01812344643799096</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1317,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1328,7 +1484,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1336,10 +1492,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>1.258819531421296</v>
+        <v>2.577799265717067</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1350,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1361,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1372,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1380,10 +1536,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.009959557937773108</v>
+        <v>0.02238123841575797</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1391,10 +1547,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.04907676801232488</v>
+        <v>0.1016691092905699</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1402,10 +1558,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.008094990441784324</v>
+        <v>0.01648259460248176</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1416,7 +1572,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1427,7 +1583,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1438,7 +1594,7 @@
         <v>32.79022202852632</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1449,7 +1605,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1460,7 +1616,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1471,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1482,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1490,7 +1646,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1498,10 +1654,10 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>87305.47313908872</v>
+        <v>213676.6373692047</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1509,10 +1665,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>20255.27050791654</v>
+        <v>41478.55998330002</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1520,10 +1676,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>843.9696044965226</v>
+        <v>1728.273332637501</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1534,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1545,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1553,10 +1709,10 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>150375812.484979</v>
+        <v>383403196.6231413</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1567,7 +1723,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1578,7 +1734,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1589,151 +1745,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51">
-        <v>10.32321934986469</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>13843.64361255554</v>
-      </c>
-      <c r="E51">
-        <v>22167371.2884279</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>98.66708142001899</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
-        <v>10.17838035566943</v>
+        <v>7.706088808483536</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>13649.41162455982</v>
+        <v>10334.01921395259</v>
       </c>
       <c r="E52">
-        <v>21939586.4180007</v>
+        <v>18102171.38446954</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>97.28274186965923</v>
+        <v>73.65311790129775</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1741,25 +1882,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>10.03725475534685</v>
+        <v>7.630303131821103</v>
       </c>
       <c r="C53">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>10232.38910583474</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>17986052.32358249</v>
       </c>
       <c r="F53">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>95.93389412889518</v>
+        <v>72.92877491522903</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1767,25 +1908,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
-        <v>11.23269568503452</v>
+        <v>7.555935461081643</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>15063.269567545</v>
+        <v>10132.6605720197</v>
       </c>
       <c r="E54">
-        <v>23605196.75373176</v>
+        <v>17872193.43406491</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>107.359658083418</v>
+        <v>72.21798492083029</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1793,25 +1934,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
-        <v>6.595915155143196</v>
+        <v>7.482837921963889</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>8845.254141350128</v>
+        <v>10034.63531011201</v>
       </c>
       <c r="E55">
-        <v>16410157.85195697</v>
+        <v>17760363.61396579</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>63.0423199968701</v>
+        <v>71.51933456774744</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1819,25 +1960,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
-        <v>5.890496171117257</v>
+        <v>7.410965014927188</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>7899.273175391664</v>
+        <v>9938.252304317657</v>
       </c>
       <c r="E56">
-        <v>15345065.76794957</v>
+        <v>17650488.96716379</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>56.30007903760708</v>
+        <v>70.83238898128398</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1845,25 +1986,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
-        <v>5.833976376892412</v>
+        <v>7.340285814908059</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>7823.479000940262</v>
+        <v>9843.470083508006</v>
       </c>
       <c r="E57">
-        <v>15260065.57891416</v>
+        <v>17542518.13098318</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>55.75987515840745</v>
+        <v>70.15685258642084</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1871,10 +2012,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>5.778394435031667</v>
+        <v>7.27077177296559</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1889,7 +2030,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>55.22863506777344</v>
+        <v>69.4924525186007</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1897,25 +2038,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
-        <v>7.572648554617306</v>
+        <v>8.686017611738373</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>10155.0731647129</v>
+        <v>11648.12333769339</v>
       </c>
       <c r="E59">
-        <v>17897774.07610808</v>
+        <v>19611727.74732067</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>72.37772502755244</v>
+        <v>83.01906390513174</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -1923,25 +2064,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
-        <v>7.476449905320879</v>
+        <v>8.586813183838283</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>10026.06885203341</v>
+        <v>11515.08821579081</v>
       </c>
       <c r="E60">
-        <v>17750594.74988982</v>
+        <v>19458221.13040317</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>71.45827929643458</v>
+        <v>82.07088959699085</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -1949,27 +2090,417 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
-        <v>7.382394205538477</v>
+        <v>6.242944015219857</v>
       </c>
       <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>8371.912783290132</v>
+      </c>
+      <c r="E61">
+        <v>15876241.96011039</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>59.66869874351666</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62">
+        <v>4.667987557482032</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>6259.864674334554</v>
+      </c>
+      <c r="E62">
+        <v>13517702.82967438</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>44.61560805716604</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63">
+        <v>4.634145663501717</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>6214.482017669072</v>
+      </c>
+      <c r="E63">
+        <v>13467450.30895112</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>44.29215460765591</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64">
+        <v>4.600724113128338</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>6169.663050187364</v>
+      </c>
+      <c r="E64">
+        <v>13417839.58014374</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>43.97271871076038</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65">
+        <v>4.567715090058598</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>6125.39729007038</v>
+      </c>
+      <c r="E65">
+        <v>13368858.38639018</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>43.65722565995543</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66">
+        <v>4.535112440171318</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>6081.676484518541</v>
+      </c>
+      <c r="E66">
+        <v>13320496.96029245</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>43.34561663549169</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67">
+        <v>4.50290793632495</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>6038.489600770485</v>
+      </c>
+      <c r="E67">
+        <v>13272742.48141564</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>43.03781300414266</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68">
+        <v>4.471095009324524</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>5995.827829404374</v>
+      </c>
+      <c r="E68">
+        <v>13225584.61073265</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>42.73375197897406</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69">
+        <v>4.439666872826589</v>
+      </c>
+      <c r="C69">
         <v>12.5</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>16916025.69007904</v>
       </c>
-      <c r="G61">
-        <v>70.55931540988605</v>
-      </c>
-      <c r="H61">
+      <c r="G69">
+        <v>42.43336869759374</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70">
+        <v>10.29566345072477</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>13806.69060069093</v>
+      </c>
+      <c r="E70">
+        <v>22124009.45187851</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>98.40370813965991</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71">
+        <v>10.11643445345012</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>13566.34093076568</v>
+      </c>
+      <c r="E71">
+        <v>21842265.93001374</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>96.6906764324379</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72">
+        <v>9.942746938544905</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>13333.42249952749</v>
+      </c>
+      <c r="E72">
+        <v>21569713.78852382</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>95.03060900637685</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73">
+        <v>9.774351538933002</v>
+      </c>
+      <c r="C73">
+        <v>12.5</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G73">
+        <v>93.42112246529292</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74">
+        <v>9.611013666369846</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>12888.56154687529</v>
+      </c>
+      <c r="E74">
+        <v>21050468.48036759</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>91.85997466585449</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75">
+        <v>9.45251242526254</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>12676.00821252557</v>
+      </c>
+      <c r="E75">
+        <v>20802983.36416621</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>90.34505433611126</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76">
+        <v>9.298639621591017</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>12469.66170534598</v>
+      </c>
+      <c r="E76">
+        <v>20563101.75852742</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>88.8743716029788</v>
+      </c>
+      <c r="H76">
         <v>0</v>
       </c>
     </row>
@@ -1980,7 +2511,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,58 +2519,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2047,55 +2578,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F2">
-        <v>47.17530227789625</v>
+        <v>49.00338270128192</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L2">
-        <v>23.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>14.49865666666666</v>
+        <v>6.21371</v>
       </c>
       <c r="N2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>5293526.576706463</v>
+        <v>4264560.242506059</v>
       </c>
       <c r="P2">
-        <v>33.27244641154851</v>
+        <v>42.43346123602313</v>
       </c>
       <c r="Q2">
-        <v>0.02547421286546993</v>
+        <v>0.03268187713436632</v>
       </c>
       <c r="R2">
-        <v>58.23123508591526</v>
+        <v>64.52120160860649</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2103,55 +2634,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F3">
-        <v>46.97122591413009</v>
+        <v>48.85035880198904</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>10.35618333333334</v>
+        <v>6.21371</v>
       </c>
       <c r="N3">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O3">
-        <v>5534615.24792766</v>
+        <v>4267455.672162727</v>
       </c>
       <c r="P3">
-        <v>31.76047430576872</v>
+        <v>42.27291927385459</v>
       </c>
       <c r="Q3">
-        <v>0.02428575721173945</v>
+        <v>0.03255763410959039</v>
       </c>
       <c r="R3">
-        <v>57.01545407873475</v>
+        <v>64.50040474313069</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2159,55 +2690,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F4">
-        <v>46.97122657081809</v>
+        <v>48.69953772880992</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>6.666666666666664</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>4.142473333333332</v>
+        <v>6.21371</v>
       </c>
       <c r="N4">
-        <v>5534615.24792766</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O4">
-        <v>5300618.937379258</v>
+        <v>4270305.863651348</v>
       </c>
       <c r="P4">
-        <v>33.08741140456436</v>
+        <v>42.11556664222235</v>
       </c>
       <c r="Q4">
-        <v>0.02533158556803882</v>
+        <v>0.03243586152126868</v>
       </c>
       <c r="R4">
-        <v>58.19429654559407</v>
+        <v>64.47995318910046</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2215,223 +2746,223 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F5">
-        <v>46.7700635440408</v>
+        <v>48.55028429568581</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>23.33333333333334</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>14.49865666666667</v>
+        <v>6.21371</v>
       </c>
       <c r="N5">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O5">
-        <v>5307565.277147649</v>
+        <v>4273117.307034354</v>
       </c>
       <c r="P5">
-        <v>32.9047116326026</v>
+        <v>41.96023483455446</v>
       </c>
       <c r="Q5">
-        <v>0.02519077731197134</v>
+        <v>0.03231565786520586</v>
       </c>
       <c r="R5">
-        <v>58.15818982908928</v>
+        <v>64.45979945025584</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F6">
-        <v>46.57180456132935</v>
+        <v>48.40248571918199</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>16.155646</v>
+        <v>6.21371</v>
       </c>
       <c r="N6">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O6">
-        <v>5219830.239044911</v>
+        <v>4275891.540357508</v>
       </c>
       <c r="P6">
-        <v>33.28703739719973</v>
+        <v>41.80671329559058</v>
       </c>
       <c r="Q6">
-        <v>0.02549547324280304</v>
+        <v>0.03219686048450578</v>
       </c>
       <c r="R6">
-        <v>58.61947540530726</v>
+        <v>64.43993167399317</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F7">
-        <v>46.34994138399485</v>
+        <v>48.25610774162753</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L7">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>3.4175405</v>
+        <v>6.21371</v>
       </c>
       <c r="N7">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O7">
-        <v>5911413.222132592</v>
+        <v>4278629.402715996</v>
       </c>
       <c r="P7">
-        <v>29.44616133925508</v>
+        <v>41.65494572783747</v>
       </c>
       <c r="Q7">
-        <v>0.02247302173030586</v>
+        <v>0.03207942568011234</v>
       </c>
       <c r="R7">
-        <v>55.26569559036349</v>
+        <v>64.42034306161615</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F8">
-        <v>38.23728111025397</v>
+        <v>48.11112585921774</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>20.5</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>12.7381055</v>
+        <v>6.21371</v>
       </c>
       <c r="N8">
-        <v>5911413.222132592</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O8">
-        <v>5450079.719646956</v>
+        <v>4281331.638272301</v>
       </c>
       <c r="P8">
-        <v>26.23447752013616</v>
+        <v>41.50489602102528</v>
       </c>
       <c r="Q8">
-        <v>0.02006913190475731</v>
+        <v>0.03196332532667743</v>
       </c>
       <c r="R8">
-        <v>57.43261610776326</v>
+        <v>64.4010275278517</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2439,55 +2970,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F9">
-        <v>38.10700168877639</v>
+        <v>47.96751698979077</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>26</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M9">
-        <v>16.155646</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N9">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>5512080.78027315</v>
+        <v>4200151.609775594</v>
       </c>
       <c r="P9">
-        <v>25.86642502652091</v>
+        <v>42.14044389800325</v>
       </c>
       <c r="Q9">
-        <v>0.01978116839503595</v>
+        <v>0.03246948687520166</v>
       </c>
       <c r="R9">
-        <v>57.12572260664511</v>
+        <v>64.98929496791303</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2495,55 +3026,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F10">
-        <v>37.9906553749456</v>
+        <v>47.79595484945231</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M10">
-        <v>1.242742</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N10">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O10">
-        <v>6040477.387408345</v>
+        <v>4203973.957416575</v>
       </c>
       <c r="P10">
-        <v>23.6475607236533</v>
+        <v>41.95345243706608</v>
       </c>
       <c r="Q10">
-        <v>0.01803605579456046</v>
+        <v>0.03232461849801629</v>
       </c>
       <c r="R10">
-        <v>54.70420027648533</v>
+        <v>64.96122011096195</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2551,55 +3082,55 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F11">
-        <v>37.9906553749454</v>
+        <v>47.62635214838827</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>7.863636363636363</v>
       </c>
       <c r="M11">
-        <v>14.912904</v>
+        <v>4.886235590909091</v>
       </c>
       <c r="N11">
-        <v>6040477.387408345</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O11">
-        <v>5515614.348643394</v>
+        <v>4385420.619109373</v>
       </c>
       <c r="P11">
-        <v>25.77180249640555</v>
+        <v>40.15980542328987</v>
       </c>
       <c r="Q11">
-        <v>0.01970844414293217</v>
+        <v>0.03090741530354028</v>
       </c>
       <c r="R11">
-        <v>57.10838727626902</v>
+        <v>63.67046654247716</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2607,391 +3138,1007 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F12">
-        <v>37.87542541357551</v>
+        <v>39.51369187558966</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>3.954545454545453</v>
       </c>
       <c r="M12">
-        <v>16.155646</v>
+        <v>2.457239863636362</v>
       </c>
       <c r="N12">
-        <v>6082278.702557526</v>
+        <v>4385420.619109373</v>
       </c>
       <c r="O12">
-        <v>5519101.608128408</v>
+        <v>4262554.339323527</v>
       </c>
       <c r="P12">
-        <v>25.67825636222371</v>
+        <v>34.23062433504144</v>
       </c>
       <c r="Q12">
-        <v>0.01963655057157085</v>
+        <v>0.02636445855764986</v>
       </c>
       <c r="R12">
-        <v>57.0912953693056</v>
+        <v>64.53562156875921</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F13">
-        <v>37.76129328061628</v>
+        <v>39.39038417750631</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L13">
-        <v>33.33333333333334</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M13">
-        <v>20.71236666666667</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N13">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>5354691.954349714</v>
+        <v>4371814.045983383</v>
       </c>
       <c r="P13">
-        <v>26.34500628395843</v>
+        <v>33.31320040441717</v>
       </c>
       <c r="Q13">
-        <v>0.02016382452188067</v>
+        <v>0.02564034848666191</v>
       </c>
       <c r="R13">
-        <v>57.91507389986463</v>
+        <v>63.76450050553181</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F14">
-        <v>37.61172188298906</v>
+        <v>39.29818427967088</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>16.66666666666666</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M14">
-        <v>10.35618333333333</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N14">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O14">
-        <v>5732210.391906465</v>
+        <v>4373451.761412804</v>
       </c>
       <c r="P14">
-        <v>24.60097317902559</v>
+        <v>33.22340391176004</v>
       </c>
       <c r="Q14">
-        <v>0.01879215143369952</v>
+        <v>0.02557097552687138</v>
       </c>
       <c r="R14">
-        <v>56.0764390360396</v>
+        <v>63.75315945245024</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F15">
-        <v>37.6117218829891</v>
+        <v>39.20665281103093</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L15">
-        <v>16.66666666666667</v>
+        <v>11.81818181818181</v>
       </c>
       <c r="M15">
-        <v>10.35618333333334</v>
+        <v>7.343475454545449</v>
       </c>
       <c r="N15">
-        <v>5732210.391906465</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O15">
-        <v>5360622.353287641</v>
+        <v>4375073.391477043</v>
       </c>
       <c r="P15">
-        <v>26.21314313898845</v>
+        <v>33.13435213311121</v>
       </c>
       <c r="Q15">
-        <v>0.02006226886865673</v>
+        <v>0.02550217976062748</v>
       </c>
       <c r="R15">
-        <v>57.88470616130349</v>
+        <v>63.74193598409801</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F16">
-        <v>37.46405055590142</v>
+        <v>39.11578146915696</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>33.33333333333333</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="M16">
-        <v>20.71236666666666</v>
+        <v>5.648827272727274</v>
       </c>
       <c r="N16">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O16">
-        <v>5366448.475035087</v>
+        <v>4458097.612613845</v>
       </c>
       <c r="P16">
-        <v>26.08336142575668</v>
+        <v>32.47256142856631</v>
       </c>
       <c r="Q16">
-        <v>0.01996232404687174</v>
+        <v>0.02498011204184668</v>
       </c>
       <c r="R16">
-        <v>57.8549211172501</v>
+        <v>63.17542314950648</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F17">
-        <v>37.318236972821</v>
+        <v>39.11578146915683</v>
       </c>
       <c r="G17">
         <v>650</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17">
         <v>9.525</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>2.727272727272734</v>
       </c>
       <c r="M17">
-        <v>31.06855</v>
+        <v>1.694648181818186</v>
       </c>
       <c r="N17">
-        <v>6082278.702557526</v>
+        <v>4458097.612613845</v>
       </c>
       <c r="O17">
-        <v>4981465.910239937</v>
+        <v>4376679.205696463</v>
       </c>
       <c r="P17">
-        <v>27.88204242111284</v>
+        <v>33.04603439336018</v>
       </c>
       <c r="Q17">
-        <v>0.02138357842667863</v>
+        <v>0.02543395288860456</v>
       </c>
       <c r="R17">
-        <v>59.93322177627765</v>
+        <v>63.73082804767952</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F18">
-        <v>37.31823697282102</v>
+        <v>39.02556210600342</v>
       </c>
       <c r="G18">
         <v>650</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>9.525</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>11.81818181818181</v>
       </c>
       <c r="M18">
-        <v>31.06855</v>
+        <v>7.343475454545449</v>
       </c>
       <c r="N18">
-        <v>4981465.910239937</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O18">
-        <v>3576790.991456642</v>
+        <v>4378269.361553539</v>
       </c>
       <c r="P18">
-        <v>38.19117396333338</v>
+        <v>32.95844099999724</v>
       </c>
       <c r="Q18">
-        <v>0.02955314706072809</v>
+        <v>0.02536628738650941</v>
       </c>
       <c r="R18">
-        <v>70.14340378957169</v>
+        <v>63.71983437093714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19">
+        <v>38.93598669507805</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L19">
+        <v>11.81818181818181</v>
+      </c>
+      <c r="M19">
+        <v>7.343475454545449</v>
+      </c>
+      <c r="N19">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O19">
+        <v>4379844.172503073</v>
+      </c>
+      <c r="P19">
+        <v>32.87156129174235</v>
+      </c>
+      <c r="Q19">
+        <v>0.02529917496107126</v>
+      </c>
+      <c r="R19">
+        <v>63.70895260854645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20">
+        <v>38.8470473723873</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L20">
+        <v>11.81818181818183</v>
+      </c>
+      <c r="M20">
+        <v>7.343475454545462</v>
+      </c>
+      <c r="N20">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O20">
+        <v>4381403.839953182</v>
+      </c>
+      <c r="P20">
+        <v>32.7853855937536</v>
+      </c>
+      <c r="Q20">
+        <v>0.02523260809693085</v>
+      </c>
+      <c r="R20">
+        <v>63.69818119539666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21">
+        <v>38.75873640368918</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L21">
+        <v>11.81818181818181</v>
+      </c>
+      <c r="M21">
+        <v>7.343475454545449</v>
+      </c>
+      <c r="N21">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O21">
+        <v>4382948.587588464</v>
+      </c>
+      <c r="P21">
+        <v>32.69990422518949</v>
+      </c>
+      <c r="Q21">
+        <v>0.02516657927167572</v>
+      </c>
+      <c r="R21">
+        <v>63.68751841750509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22">
+        <v>38.6710461887824</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>15.534275</v>
+      </c>
+      <c r="N22">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O22">
+        <v>3979004.238515535</v>
+      </c>
+      <c r="P22">
+        <v>35.76481994365836</v>
+      </c>
+      <c r="Q22">
+        <v>0.02759700024657604</v>
+      </c>
+      <c r="R22">
+        <v>66.68082314050197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23">
+        <v>38.46769107983765</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>15.534275</v>
+      </c>
+      <c r="N23">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O23">
+        <v>3987195.917568986</v>
+      </c>
+      <c r="P23">
+        <v>35.50729570308312</v>
+      </c>
+      <c r="Q23">
+        <v>0.02739678175090548</v>
+      </c>
+      <c r="R23">
+        <v>66.61570526874874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24">
+        <v>38.26787601786913</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>15.534275</v>
+      </c>
+      <c r="N24">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O24">
+        <v>3995189.270974188</v>
+      </c>
+      <c r="P24">
+        <v>35.2557062017853</v>
+      </c>
+      <c r="Q24">
+        <v>0.02720120303511724</v>
+      </c>
+      <c r="R24">
+        <v>66.55235404377609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25">
+        <v>38.0714915501197</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>15.534275</v>
+      </c>
+      <c r="N25">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O25">
+        <v>4002991.874004852</v>
+      </c>
+      <c r="P25">
+        <v>35.00981786124223</v>
+      </c>
+      <c r="Q25">
+        <v>0.02701008073278172</v>
+      </c>
+      <c r="R25">
+        <v>66.49069482981224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26">
+        <v>37.87843314921363</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>15.534275</v>
+      </c>
+      <c r="N26">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O26">
+        <v>4010610.904285975</v>
+      </c>
+      <c r="P26">
+        <v>34.76941003835279</v>
+      </c>
+      <c r="Q26">
+        <v>0.0268232416646914</v>
+      </c>
+      <c r="R26">
+        <v>66.4306572731838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27">
+        <v>37.68860092125202</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>15.534275</v>
+      </c>
+      <c r="N27">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O27">
+        <v>4018053.168364861</v>
+      </c>
+      <c r="P27">
+        <v>34.53427410771582</v>
+      </c>
+      <c r="Q27">
+        <v>0.02664052211424854</v>
+      </c>
+      <c r="R27">
+        <v>66.37217499277551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28">
+        <v>37.50189933536195</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>15.534275</v>
+      </c>
+      <c r="N28">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O28">
+        <v>4025325.126129414</v>
+      </c>
+      <c r="P28">
+        <v>34.30421262286017</v>
+      </c>
+      <c r="Q28">
+        <v>0.02646176716532542</v>
+      </c>
+      <c r="R28">
+        <v>66.31518529738553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29">
+        <v>37.31823697282101</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>15.534275</v>
+      </c>
+      <c r="N29">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O29">
+        <v>4032432.913278187</v>
+      </c>
+      <c r="P29">
+        <v>34.07903854848087</v>
+      </c>
+      <c r="Q29">
+        <v>0.02628683009629848</v>
+      </c>
+      <c r="R29">
+        <v>66.25962892725589</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +4148,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3009,58 +4156,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3068,40 +4215,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="F2">
-        <v>23.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>14.49865666666667</v>
+        <v>6.21371</v>
       </c>
       <c r="H2">
-        <v>1.149003148358955</v>
+        <v>1.106760839286686</v>
       </c>
       <c r="I2">
-        <v>98.66708142001899</v>
+        <v>73.65311790129775</v>
       </c>
       <c r="J2">
-        <v>10.32321934986469</v>
+        <v>7.706088808483536</v>
       </c>
       <c r="K2">
-        <v>13843.64361255554</v>
+        <v>10334.01921395259</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.32321934986469</v>
+        <v>7.706088808483536</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -3110,13 +4257,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>22167371.2884279</v>
+        <v>18102171.38446954</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>22167371.2884279</v>
+        <v>18102171.38446954</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3124,40 +4271,40 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="F3">
-        <v>46.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>28.99731333333333</v>
+        <v>12.42742</v>
       </c>
       <c r="H3">
-        <v>1.14746575341723</v>
+        <v>1.106009912176227</v>
       </c>
       <c r="I3">
-        <v>97.28274186965923</v>
+        <v>72.92877491522903</v>
       </c>
       <c r="J3">
-        <v>10.17838035566943</v>
+        <v>7.630303131821103</v>
       </c>
       <c r="K3">
-        <v>13649.41162455982</v>
+        <v>10232.38910583474</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.17838035566943</v>
+        <v>7.630303131821103</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -3166,51 +4313,54 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>21939586.4180007</v>
+        <v>17986052.32358249</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>21939586.4180007</v>
+        <v>17986052.32358249</v>
       </c>
     </row>
     <row r="4" spans="1:18">
+      <c r="A4">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>43.49597</v>
+        <v>18.64113</v>
       </c>
       <c r="H4">
-        <v>1.145963993838285</v>
+        <v>1.105271712117808</v>
       </c>
       <c r="I4">
-        <v>95.93389412889518</v>
+        <v>72.21798492083029</v>
       </c>
       <c r="J4">
-        <v>10.03725475534685</v>
+        <v>7.555935461081643</v>
       </c>
       <c r="K4">
-        <v>13460.15937201524</v>
+        <v>10132.6605720197</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.5</v>
+        <v>7.555935461081643</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -3219,54 +4369,54 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>17872193.43406491</v>
       </c>
       <c r="Q4">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>16916025.69007904</v>
+        <v>17872193.43406491</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="F5">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>59.651616</v>
+        <v>24.85484</v>
       </c>
       <c r="H5">
-        <v>1.165225385504188</v>
+        <v>1.104544512600879</v>
       </c>
       <c r="I5">
-        <v>107.359658083418</v>
+        <v>71.51933456774744</v>
       </c>
       <c r="J5">
-        <v>11.23269568503452</v>
+        <v>7.482837921963889</v>
       </c>
       <c r="K5">
-        <v>15063.269567545</v>
+        <v>10034.63531011201</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.23269568503452</v>
+        <v>7.482837921963889</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -3275,54 +4425,54 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>23605196.75373176</v>
+        <v>17760363.61396579</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>23605196.75373176</v>
+        <v>17760363.61396579</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="F6">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>75.80726199999999</v>
+        <v>31.06855</v>
       </c>
       <c r="H6">
-        <v>1.115998116620489</v>
+        <v>1.103827875107892</v>
       </c>
       <c r="I6">
-        <v>63.0423199968701</v>
+        <v>70.83238898128398</v>
       </c>
       <c r="J6">
-        <v>6.595915155143196</v>
+        <v>7.410965014927188</v>
       </c>
       <c r="K6">
-        <v>8845.254141350128</v>
+        <v>9938.252304317657</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6.595915155143196</v>
+        <v>7.410965014927188</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -3331,54 +4481,54 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>16410157.85195697</v>
+        <v>17650488.96716379</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>16410157.85195697</v>
+        <v>17650488.96716379</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="F7">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>91.962908</v>
+        <v>37.28226</v>
       </c>
       <c r="H7">
-        <v>1.103445131705076</v>
+        <v>1.103121544060013</v>
       </c>
       <c r="I7">
-        <v>56.30007903760708</v>
+        <v>70.15685258642084</v>
       </c>
       <c r="J7">
-        <v>5.890496171117257</v>
+        <v>7.340285814908059</v>
       </c>
       <c r="K7">
-        <v>7899.273175391664</v>
+        <v>9843.470083508006</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.890496171117257</v>
+        <v>7.340285814908059</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -3387,54 +4537,51 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>15345065.76794957</v>
+        <v>17542518.13098318</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>15345065.76794957</v>
+        <v>17542518.13098318</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8">
-        <v>1</v>
-      </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="F8">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>108.118554</v>
+        <v>43.49597</v>
       </c>
       <c r="H8">
-        <v>1.102738211574474</v>
+        <v>1.102425290064495</v>
       </c>
       <c r="I8">
-        <v>55.75987515840745</v>
+        <v>69.4924525186007</v>
       </c>
       <c r="J8">
-        <v>5.833976376892412</v>
+        <v>7.27077177296559</v>
       </c>
       <c r="K8">
-        <v>7823.479000940262</v>
+        <v>9750.250362982315</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.833976376892412</v>
+        <v>12.5</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -3443,51 +4590,54 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>15260065.57891416</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R8">
-        <v>15260065.57891416</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>81.81818181818181</v>
       </c>
       <c r="G9">
-        <v>124.2742</v>
+        <v>50.83944545454546</v>
       </c>
       <c r="H9">
-        <v>1.102041443411675</v>
+        <v>1.123732834357571</v>
       </c>
       <c r="I9">
-        <v>55.22863506777344</v>
+        <v>83.01906390513174</v>
       </c>
       <c r="J9">
-        <v>5.778394435031667</v>
+        <v>8.686017611738373</v>
       </c>
       <c r="K9">
-        <v>7748.942505266166</v>
+        <v>11648.12333769339</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.5</v>
+        <v>8.686017611738373</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -3496,54 +4646,54 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>19611727.74732067</v>
       </c>
       <c r="Q9">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>16916025.69007904</v>
+        <v>19611727.74732067</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="F10">
-        <v>233.3333333333333</v>
+        <v>93.63636363636364</v>
       </c>
       <c r="G10">
-        <v>144.9865666666667</v>
+        <v>58.18292090909091</v>
       </c>
       <c r="H10">
-        <v>1.13587835759941</v>
+        <v>1.122711111199433</v>
       </c>
       <c r="I10">
-        <v>72.37772502755244</v>
+        <v>82.07088959699085</v>
       </c>
       <c r="J10">
-        <v>7.572648554617306</v>
+        <v>8.586813183838283</v>
       </c>
       <c r="K10">
-        <v>10155.0731647129</v>
+        <v>11515.08821579081</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.572648554617306</v>
+        <v>8.586813183838283</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -3552,54 +4702,54 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>17897774.07610808</v>
+        <v>19458221.13040317</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>17897774.07610808</v>
+        <v>19458221.13040317</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="F11">
-        <v>266.6666666666667</v>
+        <v>105.4545454545455</v>
       </c>
       <c r="G11">
-        <v>165.6989333333333</v>
+        <v>65.52639636363637</v>
       </c>
       <c r="H11">
-        <v>1.134621747571398</v>
+        <v>1.107281666685729</v>
       </c>
       <c r="I11">
-        <v>71.45827929643458</v>
+        <v>59.66869874351666</v>
       </c>
       <c r="J11">
-        <v>7.476449905320879</v>
+        <v>6.242944015219857</v>
       </c>
       <c r="K11">
-        <v>10026.06885203341</v>
+        <v>8371.912783290132</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.476449905320879</v>
+        <v>6.242944015219857</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -3608,51 +4758,54 @@
         <v>0.357</v>
       </c>
       <c r="P11">
-        <v>17750594.74988982</v>
+        <v>15876241.96011039</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>17750594.74988982</v>
+        <v>15876241.96011039</v>
       </c>
     </row>
     <row r="12" spans="1:18">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="F12">
-        <v>300</v>
+        <v>117.2727272727273</v>
       </c>
       <c r="G12">
-        <v>186.4113</v>
+        <v>72.86987181818182</v>
       </c>
       <c r="H12">
-        <v>1.133389937656628</v>
+        <v>1.079608652962039</v>
       </c>
       <c r="I12">
-        <v>70.55931540988605</v>
+        <v>44.61560805716604</v>
       </c>
       <c r="J12">
-        <v>7.382394205538477</v>
+        <v>4.667987557482032</v>
       </c>
       <c r="K12">
-        <v>9899.938277511208</v>
+        <v>6259.864674334554</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12.5</v>
+        <v>4.667987557482032</v>
       </c>
       <c r="N12">
         <v>0.78</v>
@@ -3661,13 +4814,791 @@
         <v>0.357</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>13517702.82967438</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13517702.82967438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13">
+        <v>129.0909090909091</v>
+      </c>
+      <c r="G13">
+        <v>80.21334727272728</v>
+      </c>
+      <c r="H13">
+        <v>1.079204374637926</v>
+      </c>
+      <c r="I13">
+        <v>44.29215460765591</v>
+      </c>
+      <c r="J13">
+        <v>4.634145663501717</v>
+      </c>
+      <c r="K13">
+        <v>6214.482017669072</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4.634145663501717</v>
+      </c>
+      <c r="N13">
+        <v>0.78</v>
+      </c>
+      <c r="O13">
+        <v>0.357</v>
+      </c>
+      <c r="P13">
+        <v>13467450.30895112</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13467450.30895112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14">
+        <v>140.9090909090909</v>
+      </c>
+      <c r="G14">
+        <v>87.55682272727273</v>
+      </c>
+      <c r="H14">
+        <v>1.078804365288876</v>
+      </c>
+      <c r="I14">
+        <v>43.97271871076038</v>
+      </c>
+      <c r="J14">
+        <v>4.600724113128338</v>
+      </c>
+      <c r="K14">
+        <v>6169.663050187364</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4.600724113128338</v>
+      </c>
+      <c r="N14">
+        <v>0.78</v>
+      </c>
+      <c r="O14">
+        <v>0.357</v>
+      </c>
+      <c r="P14">
+        <v>13417839.58014374</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13417839.58014374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15">
+        <v>152.7272727272727</v>
+      </c>
+      <c r="G15">
+        <v>94.9002981818182</v>
+      </c>
+      <c r="H15">
+        <v>1.078408549349819</v>
+      </c>
+      <c r="I15">
+        <v>43.65722565995543</v>
+      </c>
+      <c r="J15">
+        <v>4.567715090058598</v>
+      </c>
+      <c r="K15">
+        <v>6125.39729007038</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4.567715090058598</v>
+      </c>
+      <c r="N15">
+        <v>0.78</v>
+      </c>
+      <c r="O15">
+        <v>0.357</v>
+      </c>
+      <c r="P15">
+        <v>13368858.38639018</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13368858.38639018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16">
+        <v>164.5454545454546</v>
+      </c>
+      <c r="G16">
+        <v>102.2437736363636</v>
+      </c>
+      <c r="H16">
+        <v>1.078016879141922</v>
+      </c>
+      <c r="I16">
+        <v>43.34561663549169</v>
+      </c>
+      <c r="J16">
+        <v>4.535112440171318</v>
+      </c>
+      <c r="K16">
+        <v>6081.676484518541</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.535112440171318</v>
+      </c>
+      <c r="N16">
+        <v>0.78</v>
+      </c>
+      <c r="O16">
+        <v>0.357</v>
+      </c>
+      <c r="P16">
+        <v>13320496.96029245</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13320496.96029245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17">
+        <v>176.3636363636364</v>
+      </c>
+      <c r="G17">
+        <v>109.5872490909091</v>
+      </c>
+      <c r="H17">
+        <v>1.07762926882562</v>
+      </c>
+      <c r="I17">
+        <v>43.03781300414266</v>
+      </c>
+      <c r="J17">
+        <v>4.50290793632495</v>
+      </c>
+      <c r="K17">
+        <v>6038.489600770485</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.50290793632495</v>
+      </c>
+      <c r="N17">
+        <v>0.78</v>
+      </c>
+      <c r="O17">
+        <v>0.357</v>
+      </c>
+      <c r="P17">
+        <v>13272742.48141564</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13272742.48141564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18">
+        <v>188.1818181818182</v>
+      </c>
+      <c r="G18">
+        <v>116.9307245454546</v>
+      </c>
+      <c r="H18">
+        <v>1.077245660430853</v>
+      </c>
+      <c r="I18">
+        <v>42.73375197897406</v>
+      </c>
+      <c r="J18">
+        <v>4.471095009324524</v>
+      </c>
+      <c r="K18">
+        <v>5995.827829404374</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.471095009324524</v>
+      </c>
+      <c r="N18">
+        <v>0.78</v>
+      </c>
+      <c r="O18">
+        <v>0.357</v>
+      </c>
+      <c r="P18">
+        <v>13225584.61073265</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13225584.61073265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>124.2742</v>
+      </c>
+      <c r="H19">
+        <v>1.076865990751112</v>
+      </c>
+      <c r="I19">
+        <v>42.43336869759374</v>
+      </c>
+      <c r="J19">
+        <v>4.439666872826589</v>
+      </c>
+      <c r="K19">
+        <v>5953.682069797912</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>12.5</v>
+      </c>
+      <c r="N19">
+        <v>0.78</v>
+      </c>
+      <c r="O19">
+        <v>0.357</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>16916025.69007904</v>
       </c>
-      <c r="R12">
+      <c r="R19">
         <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20">
+        <v>225</v>
+      </c>
+      <c r="G20">
+        <v>139.808475</v>
+      </c>
+      <c r="H20">
+        <v>1.186188299951521</v>
+      </c>
+      <c r="I20">
+        <v>98.40370813965991</v>
+      </c>
+      <c r="J20">
+        <v>10.29566345072477</v>
+      </c>
+      <c r="K20">
+        <v>13806.69060069093</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>10.29566345072477</v>
+      </c>
+      <c r="N20">
+        <v>0.78</v>
+      </c>
+      <c r="O20">
+        <v>0.357</v>
+      </c>
+      <c r="P20">
+        <v>22124009.45187851</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>22124009.45187851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21">
+        <v>250</v>
+      </c>
+      <c r="G21">
+        <v>155.34275</v>
+      </c>
+      <c r="H21">
+        <v>1.183751280539622</v>
+      </c>
+      <c r="I21">
+        <v>96.6906764324379</v>
+      </c>
+      <c r="J21">
+        <v>10.11643445345012</v>
+      </c>
+      <c r="K21">
+        <v>13566.34093076568</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>10.11643445345012</v>
+      </c>
+      <c r="N21">
+        <v>0.78</v>
+      </c>
+      <c r="O21">
+        <v>0.357</v>
+      </c>
+      <c r="P21">
+        <v>21842265.93001374</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>21842265.93001374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22">
+        <v>275</v>
+      </c>
+      <c r="G22">
+        <v>170.877025</v>
+      </c>
+      <c r="H22">
+        <v>1.181382896543911</v>
+      </c>
+      <c r="I22">
+        <v>95.03060900637685</v>
+      </c>
+      <c r="J22">
+        <v>9.942746938544905</v>
+      </c>
+      <c r="K22">
+        <v>13333.42249952749</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>9.942746938544905</v>
+      </c>
+      <c r="N22">
+        <v>0.78</v>
+      </c>
+      <c r="O22">
+        <v>0.357</v>
+      </c>
+      <c r="P22">
+        <v>21569713.78852382</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>21569713.78852382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+      <c r="G23">
+        <v>186.4113</v>
+      </c>
+      <c r="H23">
+        <v>1.179080153480951</v>
+      </c>
+      <c r="I23">
+        <v>93.42112246529292</v>
+      </c>
+      <c r="J23">
+        <v>9.774351538933002</v>
+      </c>
+      <c r="K23">
+        <v>13107.60090073994</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>12.5</v>
+      </c>
+      <c r="N23">
+        <v>0.78</v>
+      </c>
+      <c r="O23">
+        <v>0.357</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="R23">
+        <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24">
+        <v>325</v>
+      </c>
+      <c r="G24">
+        <v>201.945575</v>
+      </c>
+      <c r="H24">
+        <v>1.176840233526701</v>
+      </c>
+      <c r="I24">
+        <v>91.85997466585449</v>
+      </c>
+      <c r="J24">
+        <v>9.611013666369846</v>
+      </c>
+      <c r="K24">
+        <v>12888.56154687529</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>9.611013666369846</v>
+      </c>
+      <c r="N24">
+        <v>0.78</v>
+      </c>
+      <c r="O24">
+        <v>0.357</v>
+      </c>
+      <c r="P24">
+        <v>21050468.48036759</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>21050468.48036759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25">
+        <v>350</v>
+      </c>
+      <c r="G25">
+        <v>217.47985</v>
+      </c>
+      <c r="H25">
+        <v>1.174660482430941</v>
+      </c>
+      <c r="I25">
+        <v>90.34505433611126</v>
+      </c>
+      <c r="J25">
+        <v>9.45251242526254</v>
+      </c>
+      <c r="K25">
+        <v>12676.00821252557</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>9.45251242526254</v>
+      </c>
+      <c r="N25">
+        <v>0.78</v>
+      </c>
+      <c r="O25">
+        <v>0.357</v>
+      </c>
+      <c r="P25">
+        <v>20802983.36416621</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>20802983.36416621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26">
+        <v>375</v>
+      </c>
+      <c r="G26">
+        <v>233.014125</v>
+      </c>
+      <c r="H26">
+        <v>1.172538397593501</v>
+      </c>
+      <c r="I26">
+        <v>88.8743716029788</v>
+      </c>
+      <c r="J26">
+        <v>9.298639621591017</v>
+      </c>
+      <c r="K26">
+        <v>12469.66170534598</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>9.298639621591017</v>
+      </c>
+      <c r="N26">
+        <v>0.78</v>
+      </c>
+      <c r="O26">
+        <v>0.357</v>
+      </c>
+      <c r="P26">
+        <v>20563101.75852742</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>20563101.75852742</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +5608,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3685,242 +5616,442 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="B3">
-        <v>5293526.576706463</v>
+        <v>4264560.242506059</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B4">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="B5">
-        <v>5534615.24792766</v>
+        <v>4267455.672162727</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B6">
-        <v>5300618.937379258</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="B7">
-        <v>6082278.702557526</v>
+        <v>4270305.863651348</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B8">
-        <v>5307565.277147649</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="B9">
-        <v>6082278.702557526</v>
+        <v>4273117.307034354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B10">
-        <v>5219830.239044911</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="B11">
-        <v>6082278.702557526</v>
+        <v>4275891.540357508</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B12">
-        <v>5911413.222132592</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B13">
-        <v>5450079.719646956</v>
+        <v>4278629.402715996</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B14">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B15">
-        <v>5512080.78027315</v>
+        <v>4281331.638272301</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B16">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="B17">
-        <v>6040477.387408345</v>
+        <v>4200151.609775594</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B18">
-        <v>5515614.348643394</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="B19">
-        <v>6082278.702557526</v>
+        <v>4203973.957416575</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B20">
-        <v>5519101.608128408</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B21">
-        <v>6082278.702557526</v>
+        <v>4385420.619109373</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="B22">
-        <v>5354691.954349714</v>
+        <v>4262554.339323527</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B23">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="B24">
-        <v>5732210.391906465</v>
+        <v>4371814.045983383</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B25">
-        <v>5360622.353287641</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="B26">
-        <v>6082278.702557526</v>
+        <v>4373451.761412804</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B27">
-        <v>5366448.475035087</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="B28">
-        <v>6082278.702557526</v>
+        <v>4375073.391477043</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B29">
-        <v>4981465.910239937</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B30">
-        <v>3576790.991456642</v>
+        <v>4458097.612613845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31">
+        <v>4376679.205696463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33">
+        <v>4378269.361553539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35">
+        <v>4379844.172503073</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37">
+        <v>4381403.839953182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39">
+        <v>4382948.587588464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41">
+        <v>3979004.238515535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43">
+        <v>3987195.917568986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45">
+        <v>3995189.270974188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47">
+        <v>4002991.874004852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49">
+        <v>4010610.904285975</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51">
+        <v>4018053.168364861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53">
+        <v>4025325.126129414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55">
+        <v>4032432.913278187</v>
       </c>
     </row>
   </sheetData>
@@ -3938,36 +6069,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660273740879</v>
+        <v>8.112660272798607</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3976,21 +6107,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520400133653</v>
+        <v>1150.520400000022</v>
       </c>
       <c r="G2">
-        <v>1.161676103627004E-08</v>
+        <v>1.926857487073102E-12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642722412</v>
+        <v>21.09291642722411</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -3999,15 +6130,15 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353000000001</v>
+        <v>2991.353</v>
       </c>
       <c r="G3">
-        <v>1.684316007726224E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
@@ -4022,10 +6153,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040800000001</v>
+        <v>2301.0408</v>
       </c>
       <c r="G4">
-        <v>2.189610780764888E-14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/AC_1.0_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_1.0_a.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="281">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -456,10 +456,16 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_pre_C_0_1</t>
+    <t>PI01_0_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_0_remaining</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
   </si>
   <si>
     <t>PI01_pre_C_0_2</t>
@@ -468,7 +474,10 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_4</t>
+    <t>PI02_0_pre_C_0_4</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
   </si>
   <si>
     <t>PI02_pre_C_0_5</t>
@@ -477,7 +486,10 @@
     <t>PI02_remaining</t>
   </si>
   <si>
-    <t>PI03_pre_C_1_0</t>
+    <t>PI03_0_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_0_remaining</t>
   </si>
   <si>
     <t>PI03_pre_C_1_1</t>
@@ -486,13 +498,19 @@
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_4</t>
+    <t>PI04_0_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>PI04_0_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_1_remaining</t>
   </si>
   <si>
     <t>PI04_pre_C_1_5</t>
@@ -501,13 +519,19 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_6</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_7</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_8</t>
+    <t>PI05_0_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_0_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
   </si>
   <si>
     <t>PI05_pre_C_1_9</t>
@@ -516,28 +540,52 @@
     <t>PI05_remaining</t>
   </si>
   <si>
-    <t>PI06_pre_C_2_0</t>
-  </si>
-  <si>
-    <t>PI06_remaining</t>
-  </si>
-  <si>
-    <t>PI07_pre_C_2_2</t>
-  </si>
-  <si>
-    <t>PI07_remaining</t>
-  </si>
-  <si>
-    <t>PI08_pre_C_3_0</t>
-  </si>
-  <si>
-    <t>PI08_remaining</t>
-  </si>
-  <si>
-    <t>PI09_pre_C_3_2</t>
-  </si>
-  <si>
-    <t>PI09_remaining</t>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1_pre_C_2_0</t>
+  </si>
+  <si>
+    <t>PI06_1_remaining</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1_pre_C_2_2</t>
+  </si>
+  <si>
+    <t>PI07_1_remaining</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1_pre_C_3_0</t>
+  </si>
+  <si>
+    <t>PI08_1_remaining</t>
+  </si>
+  <si>
+    <t>PI08</t>
+  </si>
+  <si>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1_pre_C_3_2</t>
+  </si>
+  <si>
+    <t>PI09_1_remaining</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
@@ -546,9 +594,15 @@
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N_post_C_0_2</t>
   </si>
   <si>
@@ -558,6 +612,9 @@
     <t>N_post_C_0_4</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_5</t>
   </si>
   <si>
@@ -567,6 +624,9 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
@@ -579,9 +639,15 @@
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_4</t>
   </si>
   <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_5</t>
   </si>
   <si>
@@ -594,34 +660,64 @@
     <t>N_post_C_1_7</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_8</t>
   </si>
   <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_9</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_1</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_2</t>
   </si>
   <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_1</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_2</t>
+  </si>
+  <si>
+    <t>N09_1</t>
   </si>
   <si>
     <t>N_pre_C_0_0</t>
@@ -1393,7 +1489,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>3.077596208386873</v>
+        <v>3.260350802924064</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1415,7 +1511,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.2794849070857199</v>
+        <v>0.2922816968945701</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -1426,7 +1522,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03699322731180928</v>
+        <v>0.03718057609316752</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1448,7 +1544,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.007644407803491066</v>
+        <v>0.007683122200429673</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1459,7 +1555,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01812344643799096</v>
+        <v>0.01821523095777751</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1492,7 +1588,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>2.577799265717067</v>
+        <v>2.741131065803681</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1536,7 +1632,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.02238123841575797</v>
+        <v>0.02352639978538485</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1547,7 +1643,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.1016691092905699</v>
+        <v>0.1058166717354106</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1558,7 +1654,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.01648259460248176</v>
+        <v>0.01749802773165992</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1654,7 +1750,7 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>213676.6373692047</v>
+        <v>227223.9994672837</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -1665,7 +1761,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>41478.55998330002</v>
+        <v>44106.6807827636</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1676,7 +1772,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>1728.273332637501</v>
+        <v>1837.778365948483</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1709,7 +1805,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>383403196.6231413</v>
+        <v>398937715.3021322</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -1783,7 +1879,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1859,22 +1955,22 @@
         <v>102</v>
       </c>
       <c r="B52">
-        <v>7.706088808483536</v>
+        <v>8.225388745590857</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10334.01921395259</v>
+        <v>11030.41081561225</v>
       </c>
       <c r="E52">
-        <v>18102171.38446954</v>
+        <v>18900265.89965902</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>73.65311790129775</v>
+        <v>78.61647355998096</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1885,22 +1981,22 @@
         <v>103</v>
       </c>
       <c r="B53">
-        <v>7.630303131821103</v>
+        <v>8.141550848756866</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>10232.38910583474</v>
+        <v>10917.98251919993</v>
       </c>
       <c r="E53">
-        <v>17986052.32358249</v>
+        <v>18771132.20222749</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>72.92877491522903</v>
+        <v>77.81516920785451</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1911,22 +2007,22 @@
         <v>104</v>
       </c>
       <c r="B54">
-        <v>7.555935461081643</v>
+        <v>8.058720607939653</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>10132.6605720197</v>
+        <v>10806.90550965923</v>
       </c>
       <c r="E54">
-        <v>17872193.43406491</v>
+        <v>18643658.74901947</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>72.21798492083029</v>
+        <v>77.02349581239781</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1937,22 +2033,22 @@
         <v>105</v>
       </c>
       <c r="B55">
-        <v>7.482837921963889</v>
+        <v>7.977493021089375</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>10034.63531011201</v>
+        <v>10697.97769114127</v>
       </c>
       <c r="E55">
-        <v>17760363.61396579</v>
+        <v>18518756.15507028</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>71.51933456774744</v>
+        <v>76.24714023438588</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1963,22 +2059,22 @@
         <v>106</v>
       </c>
       <c r="B56">
-        <v>7.410965014927188</v>
+        <v>7.897617543985689</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>9938.252304317657</v>
+        <v>10590.86307883569</v>
       </c>
       <c r="E56">
-        <v>17650488.96716379</v>
+        <v>18396033.51410168</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>70.83238898128398</v>
+        <v>75.48370782674692</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1989,22 +2085,22 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>7.340285814908059</v>
+        <v>7.819149184697854</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>9843.470083508006</v>
+        <v>10485.63543966352</v>
       </c>
       <c r="E57">
-        <v>17542518.13098318</v>
+        <v>18275570.16219301</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>70.15685258642084</v>
+        <v>74.73372434462227</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2015,7 +2111,7 @@
         <v>108</v>
       </c>
       <c r="B58">
-        <v>7.27077177296559</v>
+        <v>7.741870496316586</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -2030,7 +2126,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>69.4924525186007</v>
+        <v>73.99511147782827</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2041,22 +2137,22 @@
         <v>109</v>
       </c>
       <c r="B59">
-        <v>8.686017611738373</v>
+        <v>9.188404909088559</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>11648.12333769339</v>
+        <v>12321.83475118594</v>
       </c>
       <c r="E59">
-        <v>19611727.74732067</v>
+        <v>20391478.33631391</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>83.01906390513174</v>
+        <v>87.8207722377832</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2067,22 +2163,22 @@
         <v>110</v>
       </c>
       <c r="B60">
-        <v>8.586813183838283</v>
+        <v>9.08098389283464</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>11515.08821579081</v>
+        <v>12177.78101996911</v>
       </c>
       <c r="E60">
-        <v>19458221.13040317</v>
+        <v>20224418.73777768</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>82.07088959699085</v>
+        <v>86.79406556830945</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2093,22 +2189,22 @@
         <v>111</v>
       </c>
       <c r="B61">
-        <v>6.242944015219857</v>
+        <v>6.633674296063531</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>8371.912783290132</v>
+        <v>8895.889904507116</v>
       </c>
       <c r="E61">
-        <v>15876241.96011039</v>
+        <v>16467389.19048902</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>59.66869874351666</v>
+        <v>63.40321363918</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2119,22 +2215,22 @@
         <v>112</v>
       </c>
       <c r="B62">
-        <v>4.667987557482032</v>
+        <v>4.985796336893394</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>6259.864674334554</v>
+        <v>6686.052603700778</v>
       </c>
       <c r="E62">
-        <v>13517702.82967438</v>
+        <v>13990499.29065844</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>44.61560805716604</v>
+        <v>47.65315512959055</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2145,22 +2241,22 @@
         <v>113</v>
       </c>
       <c r="B63">
-        <v>4.634145663501717</v>
+        <v>4.94745737470901</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>6214.482017669072</v>
+        <v>6634.639288632277</v>
       </c>
       <c r="E63">
-        <v>13467450.30895112</v>
+        <v>13933379.38415874</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>44.29215460765591</v>
+        <v>47.2867196819649</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2171,22 +2267,22 @@
         <v>114</v>
       </c>
       <c r="B64">
-        <v>4.600724113128338</v>
+        <v>4.909696785611891</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>6169.663050187364</v>
+        <v>6584.001583441259</v>
       </c>
       <c r="E64">
-        <v>13417839.58014374</v>
+        <v>13877143.69237149</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>43.97271871076038</v>
+        <v>46.92581219829682</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2197,22 +2293,22 @@
         <v>115</v>
       </c>
       <c r="B65">
-        <v>4.567715090058598</v>
+        <v>4.872176912088483</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>6125.39729007038</v>
+        <v>6533.686682648897</v>
       </c>
       <c r="E65">
-        <v>13368858.38639018</v>
+        <v>13821288.62304984</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>43.65722565995543</v>
+        <v>46.5672054216374</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2223,22 +2319,22 @@
         <v>116</v>
       </c>
       <c r="B66">
-        <v>4.535112440171318</v>
+        <v>4.835277607086737</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>6081.676484518541</v>
+        <v>6484.203976655456</v>
       </c>
       <c r="E66">
-        <v>13320496.96029245</v>
+        <v>13766378.89844108</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>43.34561663549169</v>
+        <v>46.21452990370442</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2249,22 +2345,22 @@
         <v>117</v>
       </c>
       <c r="B67">
-        <v>4.50290793632495</v>
+        <v>4.798933375006892</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>6038.489600770485</v>
+        <v>6435.465634551742</v>
       </c>
       <c r="E67">
-        <v>13272742.48141564</v>
+        <v>13712316.03442293</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>43.03781300414266</v>
+        <v>45.8671596518249</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2275,22 +2371,22 @@
         <v>118</v>
       </c>
       <c r="B68">
-        <v>4.471095009324524</v>
+        <v>4.762945847803322</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>5995.827829404374</v>
+        <v>6387.205640821211</v>
       </c>
       <c r="E68">
-        <v>13225584.61073265</v>
+        <v>13658804.17366352</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>42.73375197897406</v>
+        <v>45.5231987074373</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2301,7 +2397,7 @@
         <v>119</v>
       </c>
       <c r="B69">
-        <v>4.439666872826589</v>
+        <v>4.727330793511513</v>
       </c>
       <c r="C69">
         <v>12.5</v>
@@ -2316,7 +2412,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G69">
-        <v>42.43336869759374</v>
+        <v>45.18279777798941</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2327,22 +2423,22 @@
         <v>120</v>
       </c>
       <c r="B70">
-        <v>10.29566345072477</v>
+        <v>10.96503752972471</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>13806.69060069093</v>
+        <v>14704.33462811143</v>
       </c>
       <c r="E70">
-        <v>22124009.45187851</v>
+        <v>23180699.79078414</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>98.40370813965991</v>
+        <v>104.8014397498095</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2353,22 +2449,22 @@
         <v>121</v>
       </c>
       <c r="B71">
-        <v>10.11643445345012</v>
+        <v>10.76025152729694</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>13566.34093076568</v>
+        <v>14429.71250313574</v>
       </c>
       <c r="E71">
-        <v>21842265.93001374</v>
+        <v>22856674.08461615</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>96.6906764324379</v>
+        <v>102.844139755454</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2379,22 +2475,22 @@
         <v>122</v>
       </c>
       <c r="B72">
-        <v>9.942746938544905</v>
+        <v>10.56263850771869</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>13333.42249952749</v>
+        <v>14164.70949162092</v>
       </c>
       <c r="E72">
-        <v>21569713.78852382</v>
+        <v>22544621.02891821</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>95.03060900637685</v>
+        <v>100.9553975683921</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2405,7 +2501,7 @@
         <v>123</v>
       </c>
       <c r="B73">
-        <v>9.774351538933002</v>
+        <v>10.37046637073447</v>
       </c>
       <c r="C73">
         <v>12.5</v>
@@ -2420,7 +2516,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G73">
-        <v>93.42112246529292</v>
+        <v>99.11865815175565</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2431,22 +2527,22 @@
         <v>124</v>
       </c>
       <c r="B74">
-        <v>9.611013666369846</v>
+        <v>10.18471572868198</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>12888.56154687529</v>
+        <v>13657.9074864771</v>
       </c>
       <c r="E74">
-        <v>21050468.48036759</v>
+        <v>21949543.0340986</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>91.85997466585449</v>
+        <v>97.34329398462164</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2457,22 +2553,22 @@
         <v>125</v>
       </c>
       <c r="B75">
-        <v>9.45251242526254</v>
+        <v>10.00407428609111</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>12676.00821252557</v>
+        <v>13415.66369913389</v>
       </c>
       <c r="E75">
-        <v>20802983.36416621</v>
+        <v>21665895.26606861</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>90.34505433611126</v>
+        <v>95.61676243279747</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2483,22 +2579,22 @@
         <v>126</v>
       </c>
       <c r="B76">
-        <v>9.298639621591017</v>
+        <v>9.829186379456615</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>12469.66170534598</v>
+        <v>13181.13551857891</v>
       </c>
       <c r="E76">
-        <v>20563101.75852742</v>
+        <v>21391769.05402897</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>88.8743716029788</v>
+        <v>93.94522192411806</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2511,7 +2607,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2581,16 +2677,16 @@
         <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F2">
-        <v>49.00338270128192</v>
+        <v>49.22791686590655</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -2617,16 +2713,16 @@
         <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>4264560.242506059</v>
+        <v>4249638.30898944</v>
       </c>
       <c r="P2">
-        <v>42.43346123602313</v>
+        <v>39.82412088263738</v>
       </c>
       <c r="Q2">
-        <v>0.03268187713436632</v>
+        <v>0.03032495478542413</v>
       </c>
       <c r="R2">
-        <v>64.52120160860649</v>
+        <v>65.37490281132791</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2637,16 +2733,16 @@
         <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F3">
-        <v>48.85035880198904</v>
+        <v>49.06619074394548</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -2664,25 +2760,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>3.333333333333334</v>
       </c>
       <c r="M3">
-        <v>6.21371</v>
+        <v>2.071236666666667</v>
       </c>
       <c r="N3">
         <v>4719848.27318464</v>
       </c>
       <c r="O3">
-        <v>4267455.672162727</v>
+        <v>4569327.050521234</v>
       </c>
       <c r="P3">
-        <v>42.27291927385459</v>
+        <v>39.4951962850994</v>
       </c>
       <c r="Q3">
-        <v>0.03255763410959039</v>
+        <v>0.03004032903136249</v>
       </c>
       <c r="R3">
-        <v>64.50040474313069</v>
+        <v>63.10924649391834</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2693,16 +2789,16 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F4">
-        <v>48.69953772880992</v>
+        <v>49.06619146799348</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2720,25 +2816,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>6.666666666666666</v>
       </c>
       <c r="M4">
-        <v>6.21371</v>
+        <v>4.142473333333333</v>
       </c>
       <c r="N4">
-        <v>4719848.27318464</v>
+        <v>4569327.050521234</v>
       </c>
       <c r="O4">
-        <v>4270305.863651348</v>
+        <v>4252802.159873962</v>
       </c>
       <c r="P4">
-        <v>42.11556664222235</v>
+        <v>39.54807224605353</v>
       </c>
       <c r="Q4">
-        <v>0.03243586152126868</v>
+        <v>0.03011439060324215</v>
       </c>
       <c r="R4">
-        <v>64.47995318910046</v>
+        <v>65.3512712841131</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2749,16 +2845,16 @@
         <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F5">
-        <v>48.55028429568581</v>
+        <v>48.90545886978567</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2776,25 +2872,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>6.666666666666668</v>
       </c>
       <c r="M5">
-        <v>6.21371</v>
+        <v>4.142473333333334</v>
       </c>
       <c r="N5">
         <v>4719848.27318464</v>
       </c>
       <c r="O5">
-        <v>4273117.307034354</v>
+        <v>4415849.20484682</v>
       </c>
       <c r="P5">
-        <v>41.96023483455446</v>
+        <v>39.47151397907326</v>
       </c>
       <c r="Q5">
-        <v>0.03231565786520586</v>
+        <v>0.03003815768286931</v>
       </c>
       <c r="R5">
-        <v>64.45979945025584</v>
+        <v>64.16707856962724</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2805,16 +2901,16 @@
         <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F6">
-        <v>48.40248571918199</v>
+        <v>48.90545894727407</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2832,25 +2928,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>3.333333333333332</v>
       </c>
       <c r="M6">
-        <v>6.21371</v>
+        <v>2.071236666666666</v>
       </c>
       <c r="N6">
-        <v>4719848.27318464</v>
+        <v>4415849.20484682</v>
       </c>
       <c r="O6">
-        <v>4275891.540357508</v>
+        <v>4255945.102924068</v>
       </c>
       <c r="P6">
-        <v>41.80671329559058</v>
+        <v>39.49805304429255</v>
       </c>
       <c r="Q6">
-        <v>0.03219686048450578</v>
+        <v>0.0300759452852327</v>
       </c>
       <c r="R6">
-        <v>64.43993167399317</v>
+        <v>65.3278212773733</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2861,16 +2957,16 @@
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F7">
-        <v>48.25610774162753</v>
+        <v>48.74629338687364</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2897,16 +2993,16 @@
         <v>4719848.27318464</v>
       </c>
       <c r="O7">
-        <v>4278629.402715996</v>
+        <v>4259033.617799386</v>
       </c>
       <c r="P7">
-        <v>41.65494572783747</v>
+        <v>39.44919414941312</v>
       </c>
       <c r="Q7">
-        <v>0.03207942568011234</v>
+        <v>0.03003839102500829</v>
       </c>
       <c r="R7">
-        <v>64.42034306161615</v>
+        <v>65.30480194242692</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2917,16 +3013,16 @@
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F8">
-        <v>48.11112585921774</v>
+        <v>48.58872617267181</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2953,36 +3049,36 @@
         <v>4719848.27318464</v>
       </c>
       <c r="O8">
-        <v>4281331.638272301</v>
+        <v>4262080.743589859</v>
       </c>
       <c r="P8">
-        <v>41.50489602102528</v>
+        <v>39.3216794099889</v>
       </c>
       <c r="Q8">
-        <v>0.03196332532667743</v>
+        <v>0.02994095135756903</v>
       </c>
       <c r="R8">
-        <v>64.4010275278517</v>
+        <v>65.28211491898304</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F9">
-        <v>47.96751698979077</v>
+        <v>48.43273616991537</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -3000,45 +3096,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>11.81818181818182</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>7.343475454545456</v>
+        <v>3.106855</v>
       </c>
       <c r="N9">
         <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>4200151.609775594</v>
+        <v>4498059.16417879</v>
       </c>
       <c r="P9">
-        <v>42.14044389800325</v>
+        <v>39.03758371274426</v>
       </c>
       <c r="Q9">
-        <v>0.03246948687520166</v>
+        <v>0.02969942313618904</v>
       </c>
       <c r="R9">
-        <v>64.98929496791303</v>
+        <v>63.59390019111579</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F10">
-        <v>47.79595484945231</v>
+        <v>48.43273616994023</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -3056,45 +3152,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>11.81818181818182</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>7.343475454545456</v>
+        <v>3.106855</v>
       </c>
       <c r="N10">
-        <v>4719848.27318464</v>
+        <v>4498059.16417879</v>
       </c>
       <c r="O10">
-        <v>4203973.957416575</v>
+        <v>4265082.431988919</v>
       </c>
       <c r="P10">
-        <v>41.95345243706608</v>
+        <v>39.07686715799642</v>
       </c>
       <c r="Q10">
-        <v>0.03232461849801629</v>
+        <v>0.02975420590070161</v>
       </c>
       <c r="R10">
-        <v>64.96122011096195</v>
+        <v>65.25978929686157</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F11">
-        <v>47.62635214838827</v>
+        <v>48.2782960091499</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -3112,25 +3208,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>7.863636363636363</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>4.886235590909091</v>
+        <v>6.21371</v>
       </c>
       <c r="N11">
         <v>4719848.27318464</v>
       </c>
       <c r="O11">
-        <v>4385420.619109373</v>
+        <v>4268050.030515389</v>
       </c>
       <c r="P11">
-        <v>40.15980542328987</v>
+        <v>39.07045583764644</v>
       </c>
       <c r="Q11">
-        <v>0.03090741530354028</v>
+        <v>0.02974899189762505</v>
       </c>
       <c r="R11">
-        <v>63.67046654247716</v>
+        <v>65.23773972581979</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3141,16 +3237,16 @@
         <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F12">
-        <v>39.51369187558966</v>
+        <v>48.1253822192728</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -3168,25 +3264,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>3.954545454545453</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M12">
-        <v>2.457239863636362</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N12">
-        <v>4385420.619109373</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O12">
-        <v>4262554.339323527</v>
+        <v>4184338.016808275</v>
       </c>
       <c r="P12">
-        <v>34.23062433504144</v>
+        <v>39.00422324104421</v>
       </c>
       <c r="Q12">
-        <v>0.02636445855764986</v>
+        <v>0.02970807849373306</v>
       </c>
       <c r="R12">
-        <v>64.53562156875921</v>
+        <v>65.86844341006531</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3197,16 +3293,16 @@
         <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F13">
-        <v>39.39038417750631</v>
+        <v>47.94389716100168</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -3224,25 +3320,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L13">
-        <v>11.81818181818182</v>
+        <v>3.93181818181818</v>
       </c>
       <c r="M13">
-        <v>7.343475454545456</v>
+        <v>2.443117795454544</v>
       </c>
       <c r="N13">
         <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>4371814.045983383</v>
+        <v>4549776.475029824</v>
       </c>
       <c r="P13">
-        <v>33.31320040441717</v>
+        <v>38.61043449252709</v>
       </c>
       <c r="Q13">
-        <v>0.02564034848666191</v>
+        <v>0.02936929536199399</v>
       </c>
       <c r="R13">
-        <v>63.76450050553181</v>
+        <v>63.24109524507858</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3253,16 +3349,16 @@
         <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F14">
-        <v>39.29818427967088</v>
+        <v>47.94389716100155</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -3280,25 +3376,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>11.81818181818182</v>
+        <v>7.88636363636364</v>
       </c>
       <c r="M14">
-        <v>7.343475454545456</v>
+        <v>4.900357659090911</v>
       </c>
       <c r="N14">
-        <v>4719848.27318464</v>
+        <v>4549776.475029824</v>
       </c>
       <c r="O14">
-        <v>4373451.761412804</v>
+        <v>4188497.183850276</v>
       </c>
       <c r="P14">
-        <v>33.22340391176004</v>
+        <v>38.67166419066007</v>
       </c>
       <c r="Q14">
-        <v>0.02557097552687138</v>
+        <v>0.02945430374359226</v>
       </c>
       <c r="R14">
-        <v>63.75315945245024</v>
+        <v>65.83667449198599</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3309,16 +3405,16 @@
         <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F15">
-        <v>39.20665281103093</v>
+        <v>47.76453383218936</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -3336,25 +3432,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L15">
-        <v>11.81818181818181</v>
+        <v>7.86363636363636</v>
       </c>
       <c r="M15">
-        <v>7.343475454545449</v>
+        <v>4.886235590909089</v>
       </c>
       <c r="N15">
         <v>4719848.27318464</v>
       </c>
       <c r="O15">
-        <v>4375073.391477043</v>
+        <v>4375910.529932729</v>
       </c>
       <c r="P15">
-        <v>33.13435213311121</v>
+        <v>38.58793001998763</v>
       </c>
       <c r="Q15">
-        <v>0.02550217976062748</v>
+        <v>0.02936993045286984</v>
       </c>
       <c r="R15">
-        <v>63.74193598409801</v>
+        <v>64.45118792003778</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3365,16 +3461,16 @@
         <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F16">
-        <v>39.11578146915696</v>
+        <v>39.65187355939091</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -3392,25 +3488,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>9.090909090909093</v>
+        <v>3.95454545454546</v>
       </c>
       <c r="M16">
-        <v>5.648827272727274</v>
+        <v>2.457239863636367</v>
       </c>
       <c r="N16">
-        <v>4719848.27318464</v>
+        <v>4375910.529932729</v>
       </c>
       <c r="O16">
-        <v>4458097.612613845</v>
+        <v>4249056.566156982</v>
       </c>
       <c r="P16">
-        <v>32.47256142856631</v>
+        <v>32.05949512541338</v>
       </c>
       <c r="Q16">
-        <v>0.02498011204184668</v>
+        <v>0.0244124631588037</v>
       </c>
       <c r="R16">
-        <v>63.17542314950648</v>
+        <v>65.3792507727217</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3421,16 +3517,16 @@
         <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F17">
-        <v>39.11578146915683</v>
+        <v>39.52084834031338</v>
       </c>
       <c r="G17">
         <v>650</v>
@@ -3448,25 +3544,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L17">
-        <v>2.727272727272734</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M17">
-        <v>1.694648181818186</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N17">
-        <v>4458097.612613845</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O17">
-        <v>4376679.205696463</v>
+        <v>4361599.508825609</v>
       </c>
       <c r="P17">
-        <v>33.04603439336018</v>
+        <v>32.03049867360566</v>
       </c>
       <c r="Q17">
-        <v>0.02543395288860456</v>
+        <v>0.02438021713269818</v>
       </c>
       <c r="R17">
-        <v>63.73082804767952</v>
+        <v>64.55391356666263</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3477,16 +3573,16 @@
         <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F18">
-        <v>39.02556210600342</v>
+        <v>39.42237123273138</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -3504,25 +3600,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L18">
-        <v>11.81818181818181</v>
+        <v>0.3939393939393909</v>
       </c>
       <c r="M18">
-        <v>7.343475454545449</v>
+        <v>0.2447825151515133</v>
       </c>
       <c r="N18">
         <v>4719848.27318464</v>
       </c>
       <c r="O18">
-        <v>4378269.361553539</v>
+        <v>4708388.696778437</v>
       </c>
       <c r="P18">
-        <v>32.95844099999724</v>
+        <v>31.65809290608964</v>
       </c>
       <c r="Q18">
-        <v>0.02536628738650941</v>
+        <v>0.02406696848114839</v>
       </c>
       <c r="R18">
-        <v>63.71983437093714</v>
+        <v>62.19856395928458</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3533,16 +3629,16 @@
         <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F19">
-        <v>38.93598669507805</v>
+        <v>39.42237123273248</v>
       </c>
       <c r="G19">
         <v>650</v>
@@ -3560,25 +3656,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L19">
-        <v>11.81818181818181</v>
+        <v>11.42424242424243</v>
       </c>
       <c r="M19">
-        <v>7.343475454545449</v>
+        <v>7.098692939393943</v>
       </c>
       <c r="N19">
-        <v>4719848.27318464</v>
+        <v>4708388.696778437</v>
       </c>
       <c r="O19">
-        <v>4379844.172503073</v>
+        <v>4363396.277196881</v>
       </c>
       <c r="P19">
-        <v>32.87156129174235</v>
+        <v>31.73047904016465</v>
       </c>
       <c r="Q19">
-        <v>0.02529917496107126</v>
+        <v>0.02415169826010987</v>
       </c>
       <c r="R19">
-        <v>63.70895260854645</v>
+        <v>64.54098925185069</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3589,16 +3685,16 @@
         <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F20">
-        <v>38.8470473723873</v>
+        <v>39.32465137832495</v>
       </c>
       <c r="G20">
         <v>650</v>
@@ -3616,25 +3712,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L20">
-        <v>11.81818181818183</v>
+        <v>4.742424242424242</v>
       </c>
       <c r="M20">
-        <v>7.343475454545462</v>
+        <v>2.946804893939394</v>
       </c>
       <c r="N20">
         <v>4719848.27318464</v>
       </c>
       <c r="O20">
-        <v>4381403.839953182</v>
+        <v>4580729.086936833</v>
       </c>
       <c r="P20">
-        <v>32.7853855937536</v>
+        <v>31.68975680966506</v>
       </c>
       <c r="Q20">
-        <v>0.02523260809693085</v>
+        <v>0.0241025411441384</v>
       </c>
       <c r="R20">
-        <v>63.69818119539666</v>
+        <v>63.03273103849203</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3645,16 +3741,16 @@
         <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F21">
-        <v>38.75873640368918</v>
+        <v>39.32465137832486</v>
       </c>
       <c r="G21">
         <v>650</v>
@@ -3672,45 +3768,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L21">
-        <v>11.81818181818181</v>
+        <v>7.075757575757578</v>
       </c>
       <c r="M21">
-        <v>7.343475454545449</v>
+        <v>4.396670560606062</v>
       </c>
       <c r="N21">
-        <v>4719848.27318464</v>
+        <v>4580729.086936833</v>
       </c>
       <c r="O21">
-        <v>4382948.587588464</v>
+        <v>4365168.370058776</v>
       </c>
       <c r="P21">
-        <v>32.69990422518949</v>
+        <v>31.7348946394796</v>
       </c>
       <c r="Q21">
-        <v>0.02516657927167572</v>
+        <v>0.02415490442068939</v>
       </c>
       <c r="R21">
-        <v>63.68751841750509</v>
+        <v>64.52825003070281</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F22">
-        <v>38.6710461887824</v>
+        <v>39.22767735333835</v>
       </c>
       <c r="G22">
         <v>650</v>
@@ -3728,45 +3824,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="M22">
-        <v>15.534275</v>
+        <v>5.648827272727274</v>
       </c>
       <c r="N22">
         <v>4719848.27318464</v>
       </c>
       <c r="O22">
-        <v>3979004.238515535</v>
+        <v>4450796.311878185</v>
       </c>
       <c r="P22">
-        <v>35.76481994365836</v>
+        <v>31.72264640747313</v>
       </c>
       <c r="Q22">
-        <v>0.02759700024657604</v>
+        <v>0.02413823624841061</v>
       </c>
       <c r="R22">
-        <v>66.68082314050197</v>
+        <v>63.92153544658217</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F23">
-        <v>38.46769107983765</v>
+        <v>39.22767735333844</v>
       </c>
       <c r="G23">
         <v>650</v>
@@ -3784,45 +3880,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>2.727272727272734</v>
       </c>
       <c r="M23">
-        <v>15.534275</v>
+        <v>1.694648181818186</v>
       </c>
       <c r="N23">
-        <v>4719848.27318464</v>
+        <v>4450796.311878185</v>
       </c>
       <c r="O23">
-        <v>3987195.917568986</v>
+        <v>4366938.928883267</v>
       </c>
       <c r="P23">
-        <v>35.50729570308312</v>
+        <v>31.74016371074411</v>
       </c>
       <c r="Q23">
-        <v>0.02739678175090548</v>
+        <v>0.02415876039681305</v>
       </c>
       <c r="R23">
-        <v>66.61570526874874</v>
+        <v>64.51552936815388</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F24">
-        <v>38.26787601786913</v>
+        <v>39.13144440327181</v>
       </c>
       <c r="G24">
         <v>650</v>
@@ -3840,45 +3936,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>11.81818181818181</v>
       </c>
       <c r="M24">
-        <v>15.534275</v>
+        <v>7.343475454545449</v>
       </c>
       <c r="N24">
         <v>4719848.27318464</v>
       </c>
       <c r="O24">
-        <v>3995189.270974188</v>
+        <v>4368681.271126278</v>
       </c>
       <c r="P24">
-        <v>35.2557062017853</v>
+        <v>31.71489810295234</v>
       </c>
       <c r="Q24">
-        <v>0.02720120303511724</v>
+        <v>0.02413937782431743</v>
       </c>
       <c r="R24">
-        <v>66.55235404377609</v>
+        <v>64.50301877021172</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F25">
-        <v>38.0714915501197</v>
+        <v>39.03594027094726</v>
       </c>
       <c r="G25">
         <v>650</v>
@@ -3896,45 +3992,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>2.121212121212125</v>
       </c>
       <c r="M25">
-        <v>15.534275</v>
+        <v>1.318059696969699</v>
       </c>
       <c r="N25">
         <v>4719848.27318464</v>
       </c>
       <c r="O25">
-        <v>4002991.874004852</v>
+        <v>4659001.675815244</v>
       </c>
       <c r="P25">
-        <v>35.00981786124223</v>
+        <v>31.39105877335374</v>
       </c>
       <c r="Q25">
-        <v>0.02701008073278172</v>
+        <v>0.02386835866571347</v>
       </c>
       <c r="R25">
-        <v>66.49069482981224</v>
+        <v>62.51719274154135</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F26">
-        <v>37.87843314921363</v>
+        <v>39.03594027094729</v>
       </c>
       <c r="G26">
         <v>650</v>
@@ -3952,45 +4048,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>9.696969696969688</v>
       </c>
       <c r="M26">
-        <v>15.534275</v>
+        <v>6.025415757575752</v>
       </c>
       <c r="N26">
-        <v>4719848.27318464</v>
+        <v>4659001.675815244</v>
       </c>
       <c r="O26">
-        <v>4010610.904285975</v>
+        <v>4370399.571217718</v>
       </c>
       <c r="P26">
-        <v>34.76941003835279</v>
+        <v>31.45212185468741</v>
       </c>
       <c r="Q26">
-        <v>0.0268232416646914</v>
+        <v>0.02393922071176174</v>
       </c>
       <c r="R26">
-        <v>66.4306572731838</v>
+        <v>64.49068792826782</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F27">
-        <v>37.68860092125202</v>
+        <v>38.94115399282509</v>
       </c>
       <c r="G27">
         <v>650</v>
@@ -4008,45 +4104,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>6.969696969696983</v>
       </c>
       <c r="M27">
-        <v>15.534275</v>
+        <v>4.330767575757585</v>
       </c>
       <c r="N27">
         <v>4719848.27318464</v>
       </c>
       <c r="O27">
-        <v>4018053.168364861</v>
+        <v>4517919.910199916</v>
       </c>
       <c r="P27">
-        <v>34.53427410771582</v>
+        <v>31.43702592230761</v>
       </c>
       <c r="Q27">
-        <v>0.02664052211424854</v>
+        <v>0.02391536847839657</v>
       </c>
       <c r="R27">
-        <v>66.37217499277551</v>
+        <v>63.45771706148315</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F28">
-        <v>37.50189933536195</v>
+        <v>38.94115399282496</v>
       </c>
       <c r="G28">
         <v>650</v>
@@ -4064,45 +4160,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>4.848484848484844</v>
       </c>
       <c r="M28">
-        <v>15.534275</v>
+        <v>3.012707878787876</v>
       </c>
       <c r="N28">
-        <v>4719848.27318464</v>
+        <v>4517919.910199916</v>
       </c>
       <c r="O28">
-        <v>4025325.126129414</v>
+        <v>4372107.38504912</v>
       </c>
       <c r="P28">
-        <v>34.30421262286017</v>
+        <v>31.46780002604191</v>
       </c>
       <c r="Q28">
-        <v>0.02646176716532542</v>
+        <v>0.02395100638173503</v>
       </c>
       <c r="R28">
-        <v>66.31518529738553</v>
+        <v>64.4784393421604</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F29">
-        <v>37.31823697282101</v>
+        <v>38.84707852343799</v>
       </c>
       <c r="G29">
         <v>650</v>
@@ -4120,25 +4216,921 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>11.81818181818183</v>
       </c>
       <c r="M29">
-        <v>15.534275</v>
+        <v>7.343475454545462</v>
       </c>
       <c r="N29">
         <v>4719848.27318464</v>
       </c>
       <c r="O29">
-        <v>4032432.913278187</v>
+        <v>4373803.372732345</v>
       </c>
       <c r="P29">
-        <v>34.07903854848087</v>
+        <v>31.48442782411611</v>
       </c>
       <c r="Q29">
-        <v>0.02628683009629848</v>
+        <v>0.02396351581050469</v>
       </c>
       <c r="R29">
-        <v>66.25962892725589</v>
+        <v>64.46628247830948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30">
+        <v>38.75370650587612</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N30">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O30">
+        <v>4226315.523689216</v>
+      </c>
+      <c r="P30">
+        <v>31.53328387852071</v>
+      </c>
+      <c r="Q30">
+        <v>0.02401384708229597</v>
+      </c>
+      <c r="R30">
+        <v>65.54990070157341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31">
+        <v>38.75370650587611</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L31">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="M31">
+        <v>5.178091666666668</v>
+      </c>
+      <c r="N31">
+        <v>4226315.523689216</v>
+      </c>
+      <c r="O31">
+        <v>3957200.863362981</v>
+      </c>
+      <c r="P31">
+        <v>31.58725523647256</v>
+      </c>
+      <c r="Q31">
+        <v>0.02407773644321705</v>
+      </c>
+      <c r="R31">
+        <v>67.68625407039451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32">
+        <v>38.53713023450593</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L32">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M32">
+        <v>5.178091666666666</v>
+      </c>
+      <c r="N32">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O32">
+        <v>4482360.259830136</v>
+      </c>
+      <c r="P32">
+        <v>31.14512730772483</v>
+      </c>
+      <c r="Q32">
+        <v>0.02369619668218678</v>
+      </c>
+      <c r="R32">
+        <v>63.70216862348632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33">
+        <v>38.53713023450597</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N33">
+        <v>4482360.259830136</v>
+      </c>
+      <c r="O33">
+        <v>3966230.515163621</v>
+      </c>
+      <c r="P33">
+        <v>31.25054854303009</v>
+      </c>
+      <c r="Q33">
+        <v>0.02382029995089045</v>
+      </c>
+      <c r="R33">
+        <v>67.61109243631881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34">
+        <v>38.32459880007448</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N34">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O34">
+        <v>4237440.127799142</v>
+      </c>
+      <c r="P34">
+        <v>31.18412566059767</v>
+      </c>
+      <c r="Q34">
+        <v>0.02374694055724817</v>
+      </c>
+      <c r="R34">
+        <v>65.46625436621908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35">
+        <v>38.32459880007445</v>
+      </c>
+      <c r="G35">
+        <v>650</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35">
+        <v>9.525</v>
+      </c>
+      <c r="J35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L35">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="M35">
+        <v>5.178091666666672</v>
+      </c>
+      <c r="N35">
+        <v>4237440.127799142</v>
+      </c>
+      <c r="O35">
+        <v>3974977.616902517</v>
+      </c>
+      <c r="P35">
+        <v>31.23749941053527</v>
+      </c>
+      <c r="Q35">
+        <v>0.02380960300258679</v>
+      </c>
+      <c r="R35">
+        <v>67.53852095447411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36">
+        <v>38.11597052519338</v>
+      </c>
+      <c r="G36">
+        <v>650</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36">
+        <v>9.525</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L36">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="M36">
+        <v>5.178091666666663</v>
+      </c>
+      <c r="N36">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O36">
+        <v>4487491.893684486</v>
+      </c>
+      <c r="P36">
+        <v>30.80475238401868</v>
+      </c>
+      <c r="Q36">
+        <v>0.0234368141680075</v>
+      </c>
+      <c r="R36">
+        <v>63.66671718993356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37">
+        <v>38.11597052519335</v>
+      </c>
+      <c r="G37">
+        <v>650</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37">
+        <v>9.525</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L37">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M37">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N37">
+        <v>4487491.893684486</v>
+      </c>
+      <c r="O37">
+        <v>3983542.501035226</v>
+      </c>
+      <c r="P37">
+        <v>30.90902150507598</v>
+      </c>
+      <c r="Q37">
+        <v>0.02355850886672773</v>
+      </c>
+      <c r="R37">
+        <v>67.46768722430649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38">
+        <v>37.91113794410505</v>
+      </c>
+      <c r="G38">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>9.525</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L38">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M38">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N38">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O38">
+        <v>4248020.493977764</v>
+      </c>
+      <c r="P38">
+        <v>30.8476990392637</v>
+      </c>
+      <c r="Q38">
+        <v>0.02348980455858946</v>
+      </c>
+      <c r="R38">
+        <v>65.38699655256849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39">
+        <v>37.91113794410507</v>
+      </c>
+      <c r="G39">
+        <v>650</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>9.525</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L39">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="M39">
+        <v>5.178091666666668</v>
+      </c>
+      <c r="N39">
+        <v>4248020.493977764</v>
+      </c>
+      <c r="O39">
+        <v>3991855.077515714</v>
+      </c>
+      <c r="P39">
+        <v>30.90049697217973</v>
+      </c>
+      <c r="Q39">
+        <v>0.02355131145198195</v>
+      </c>
+      <c r="R39">
+        <v>67.39915282407891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40">
+        <v>37.70997422245762</v>
+      </c>
+      <c r="G40">
+        <v>650</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40">
+        <v>9.525</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L40">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M40">
+        <v>5.178091666666666</v>
+      </c>
+      <c r="N40">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O40">
+        <v>4492382.359707165</v>
+      </c>
+      <c r="P40">
+        <v>30.47663229676193</v>
+      </c>
+      <c r="Q40">
+        <v>0.02318678439661562</v>
+      </c>
+      <c r="R40">
+        <v>63.63298686499764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41">
+        <v>37.70997422245765</v>
+      </c>
+      <c r="G41">
+        <v>650</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41">
+        <v>9.525</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L41">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M41">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N41">
+        <v>4492382.359707165</v>
+      </c>
+      <c r="O41">
+        <v>3999991.01514464</v>
+      </c>
+      <c r="P41">
+        <v>30.57979078421727</v>
+      </c>
+      <c r="Q41">
+        <v>0.02330620440954485</v>
+      </c>
+      <c r="R41">
+        <v>67.33227659306326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42">
+        <v>37.51237844574292</v>
+      </c>
+      <c r="G42">
+        <v>650</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42">
+        <v>9.525</v>
+      </c>
+      <c r="J42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L42">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M42">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N42">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O42">
+        <v>4258096.727613424</v>
+      </c>
+      <c r="P42">
+        <v>30.52323468230721</v>
+      </c>
+      <c r="Q42">
+        <v>0.0232418461782026</v>
+      </c>
+      <c r="R42">
+        <v>65.31178220582974</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" t="s">
+        <v>257</v>
+      </c>
+      <c r="F43">
+        <v>37.51237844574297</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>9.525</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L43">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="M43">
+        <v>5.178091666666672</v>
+      </c>
+      <c r="N43">
+        <v>4258096.727613424</v>
+      </c>
+      <c r="O43">
+        <v>4007901.848329046</v>
+      </c>
+      <c r="P43">
+        <v>30.57547727242994</v>
+      </c>
+      <c r="Q43">
+        <v>0.02330226234867117</v>
+      </c>
+      <c r="R43">
+        <v>67.26744120513416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44">
+        <v>37.31823697282096</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44">
+        <v>9.525</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L44">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="M44">
+        <v>5.178091666666663</v>
+      </c>
+      <c r="N44">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O44">
+        <v>4497048.736084362</v>
+      </c>
+      <c r="P44">
+        <v>30.16003616111644</v>
+      </c>
+      <c r="Q44">
+        <v>0.02294554874107988</v>
+      </c>
+      <c r="R44">
+        <v>63.60085205322961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45">
+        <v>37.31823697282105</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>9.525</v>
+      </c>
+      <c r="J45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L45">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M45">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N45">
+        <v>4497048.736084362</v>
+      </c>
+      <c r="O45">
+        <v>4015640.993765987</v>
+      </c>
+      <c r="P45">
+        <v>30.26212302168833</v>
+      </c>
+      <c r="Q45">
+        <v>0.02306281639894722</v>
+      </c>
+      <c r="R45">
+        <v>67.20419382902966</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +5148,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4171,43 +5163,43 @@
         <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4218,13 +5210,13 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -4233,22 +5225,22 @@
         <v>6.21371</v>
       </c>
       <c r="H2">
-        <v>1.106760839286686</v>
+        <v>1.110647055115384</v>
       </c>
       <c r="I2">
-        <v>73.65311790129775</v>
+        <v>78.61647355998096</v>
       </c>
       <c r="J2">
-        <v>7.706088808483536</v>
+        <v>8.225388745590857</v>
       </c>
       <c r="K2">
-        <v>10334.01921395259</v>
+        <v>11030.41081561225</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7.706088808483536</v>
+        <v>8.225388745590857</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -4257,13 +5249,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>18102171.38446954</v>
+        <v>18900265.89965902</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>18102171.38446954</v>
+        <v>18900265.89965902</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4274,13 +5266,13 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -4289,22 +5281,22 @@
         <v>12.42742</v>
       </c>
       <c r="H3">
-        <v>1.106009912176227</v>
+        <v>1.109820794796746</v>
       </c>
       <c r="I3">
-        <v>72.92877491522903</v>
+        <v>77.81516920785451</v>
       </c>
       <c r="J3">
-        <v>7.630303131821103</v>
+        <v>8.141550848756866</v>
       </c>
       <c r="K3">
-        <v>10232.38910583474</v>
+        <v>10917.98251919993</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.630303131821103</v>
+        <v>8.141550848756866</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -4313,13 +5305,13 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>17986052.32358249</v>
+        <v>18771132.20222749</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>17986052.32358249</v>
+        <v>18771132.20222749</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4330,13 +5322,13 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -4345,22 +5337,22 @@
         <v>18.64113</v>
       </c>
       <c r="H4">
-        <v>1.105271712117808</v>
+        <v>1.109001211021694</v>
       </c>
       <c r="I4">
-        <v>72.21798492083029</v>
+        <v>77.02349581239781</v>
       </c>
       <c r="J4">
-        <v>7.555935461081643</v>
+        <v>8.058720607939653</v>
       </c>
       <c r="K4">
-        <v>10132.6605720197</v>
+        <v>10806.90550965923</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>7.555935461081643</v>
+        <v>8.058720607939653</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -4369,13 +5361,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>17872193.43406491</v>
+        <v>18643658.74901947</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>17872193.43406491</v>
+        <v>18643658.74901947</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4386,13 +5378,13 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -4401,22 +5393,22 @@
         <v>24.85484</v>
       </c>
       <c r="H5">
-        <v>1.104544512600879</v>
+        <v>1.108196998835467</v>
       </c>
       <c r="I5">
-        <v>71.51933456774744</v>
+        <v>76.24714023438588</v>
       </c>
       <c r="J5">
-        <v>7.482837921963889</v>
+        <v>7.977493021089375</v>
       </c>
       <c r="K5">
-        <v>10034.63531011201</v>
+        <v>10697.97769114127</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.482837921963889</v>
+        <v>7.977493021089375</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -4425,13 +5417,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>17760363.61396579</v>
+        <v>18518756.15507028</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>17760363.61396579</v>
+        <v>18518756.15507028</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4442,13 +5434,13 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -4457,22 +5449,22 @@
         <v>31.06855</v>
       </c>
       <c r="H6">
-        <v>1.103827875107892</v>
+        <v>1.107404706089452</v>
       </c>
       <c r="I6">
-        <v>70.83238898128398</v>
+        <v>75.48370782674692</v>
       </c>
       <c r="J6">
-        <v>7.410965014927188</v>
+        <v>7.897617543985689</v>
       </c>
       <c r="K6">
-        <v>9938.252304317657</v>
+        <v>10590.86307883569</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7.410965014927188</v>
+        <v>7.897617543985689</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -4481,13 +5473,13 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>17650488.96716379</v>
+        <v>18396033.51410168</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>17650488.96716379</v>
+        <v>18396033.51410168</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4498,13 +5490,13 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -4513,22 +5505,22 @@
         <v>37.28226</v>
       </c>
       <c r="H7">
-        <v>1.103121544060013</v>
+        <v>1.106625334550369</v>
       </c>
       <c r="I7">
-        <v>70.15685258642084</v>
+        <v>74.73372434462227</v>
       </c>
       <c r="J7">
-        <v>7.340285814908059</v>
+        <v>7.819149184697854</v>
       </c>
       <c r="K7">
-        <v>9843.470083508006</v>
+        <v>10485.63543966352</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>7.340285814908059</v>
+        <v>7.819149184697854</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -4537,13 +5529,13 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>17542518.13098318</v>
+        <v>18275570.16219301</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>17542518.13098318</v>
+        <v>18275570.16219301</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4551,13 +5543,13 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F8">
         <v>70</v>
@@ -4566,16 +5558,16 @@
         <v>43.49597</v>
       </c>
       <c r="H8">
-        <v>1.102425290064495</v>
+        <v>1.105855891903567</v>
       </c>
       <c r="I8">
-        <v>69.4924525186007</v>
+        <v>73.99511147782827</v>
       </c>
       <c r="J8">
-        <v>7.27077177296559</v>
+        <v>7.741870496316586</v>
       </c>
       <c r="K8">
-        <v>9750.250362982315</v>
+        <v>10382.00317297047</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4607,13 +5599,13 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F9">
         <v>81.81818181818181</v>
@@ -4622,22 +5614,22 @@
         <v>50.83944545454546</v>
       </c>
       <c r="H9">
-        <v>1.123732834357571</v>
+        <v>1.127979683817428</v>
       </c>
       <c r="I9">
-        <v>83.01906390513174</v>
+        <v>87.8207722377832</v>
       </c>
       <c r="J9">
-        <v>8.686017611738373</v>
+        <v>9.188404909088559</v>
       </c>
       <c r="K9">
-        <v>11648.12333769339</v>
+        <v>12321.83475118594</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>8.686017611738373</v>
+        <v>9.188404909088559</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -4646,13 +5638,13 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>19611727.74732067</v>
+        <v>20391478.33631391</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>19611727.74732067</v>
+        <v>20391478.33631391</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4663,13 +5655,13 @@
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F10">
         <v>93.63636363636364</v>
@@ -4678,22 +5670,22 @@
         <v>58.18292090909091</v>
       </c>
       <c r="H10">
-        <v>1.122711111199433</v>
+        <v>1.1268596028626</v>
       </c>
       <c r="I10">
-        <v>82.07088959699085</v>
+        <v>86.79406556830945</v>
       </c>
       <c r="J10">
-        <v>8.586813183838283</v>
+        <v>9.08098389283464</v>
       </c>
       <c r="K10">
-        <v>11515.08821579081</v>
+        <v>12177.78101996911</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.586813183838283</v>
+        <v>9.08098389283464</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -4702,13 +5694,13 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>19458221.13040317</v>
+        <v>20224418.73777768</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>19458221.13040317</v>
+        <v>20224418.73777768</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4719,13 +5711,13 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F11">
         <v>105.4545454545455</v>
@@ -4734,22 +5726,22 @@
         <v>65.52639636363637</v>
       </c>
       <c r="H11">
-        <v>1.107281666685729</v>
+        <v>1.110799114979413</v>
       </c>
       <c r="I11">
-        <v>59.66869874351666</v>
+        <v>63.40321363918</v>
       </c>
       <c r="J11">
-        <v>6.242944015219857</v>
+        <v>6.633674296063531</v>
       </c>
       <c r="K11">
-        <v>8371.912783290132</v>
+        <v>8895.889904507116</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6.242944015219857</v>
+        <v>6.633674296063531</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -4758,13 +5750,13 @@
         <v>0.357</v>
       </c>
       <c r="P11">
-        <v>15876241.96011039</v>
+        <v>16467389.19048902</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>15876241.96011039</v>
+        <v>16467389.19048902</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4775,13 +5767,13 @@
         <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F12">
         <v>117.2727272727273</v>
@@ -4790,22 +5782,22 @@
         <v>72.86987181818182</v>
       </c>
       <c r="H12">
-        <v>1.079608652962039</v>
+        <v>1.082137015018028</v>
       </c>
       <c r="I12">
-        <v>44.61560805716604</v>
+        <v>47.65315512959055</v>
       </c>
       <c r="J12">
-        <v>4.667987557482032</v>
+        <v>4.985796336893394</v>
       </c>
       <c r="K12">
-        <v>6259.864674334554</v>
+        <v>6686.052603700778</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.667987557482032</v>
+        <v>4.985796336893394</v>
       </c>
       <c r="N12">
         <v>0.78</v>
@@ -4814,13 +5806,13 @@
         <v>0.357</v>
       </c>
       <c r="P12">
-        <v>13517702.82967438</v>
+        <v>13990499.29065844</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>13517702.82967438</v>
+        <v>13990499.29065844</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4831,13 +5823,13 @@
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F13">
         <v>129.0909090909091</v>
@@ -4846,22 +5838,22 @@
         <v>80.21334727272728</v>
       </c>
       <c r="H13">
-        <v>1.079204374637926</v>
+        <v>1.081691410392996</v>
       </c>
       <c r="I13">
-        <v>44.29215460765591</v>
+        <v>47.2867196819649</v>
       </c>
       <c r="J13">
-        <v>4.634145663501717</v>
+        <v>4.94745737470901</v>
       </c>
       <c r="K13">
-        <v>6214.482017669072</v>
+        <v>6634.639288632277</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.634145663501717</v>
+        <v>4.94745737470901</v>
       </c>
       <c r="N13">
         <v>0.78</v>
@@ -4870,13 +5862,13 @@
         <v>0.357</v>
       </c>
       <c r="P13">
-        <v>13467450.30895112</v>
+        <v>13933379.38415874</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>13467450.30895112</v>
+        <v>13933379.38415874</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4887,37 +5879,37 @@
         <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F14">
         <v>140.9090909090909</v>
       </c>
       <c r="G14">
-        <v>87.55682272727273</v>
+        <v>87.55682272727275</v>
       </c>
       <c r="H14">
-        <v>1.078804365288876</v>
+        <v>1.081252284690473</v>
       </c>
       <c r="I14">
-        <v>43.97271871076038</v>
+        <v>46.92581219829682</v>
       </c>
       <c r="J14">
-        <v>4.600724113128338</v>
+        <v>4.909696785611891</v>
       </c>
       <c r="K14">
-        <v>6169.663050187364</v>
+        <v>6584.001583441259</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.600724113128338</v>
+        <v>4.909696785611891</v>
       </c>
       <c r="N14">
         <v>0.78</v>
@@ -4926,13 +5918,13 @@
         <v>0.357</v>
       </c>
       <c r="P14">
-        <v>13417839.58014374</v>
+        <v>13877143.69237149</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>13417839.58014374</v>
+        <v>13877143.69237149</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4943,13 +5935,13 @@
         <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F15">
         <v>152.7272727272727</v>
@@ -4958,22 +5950,22 @@
         <v>94.9002981818182</v>
       </c>
       <c r="H15">
-        <v>1.078408549349819</v>
+        <v>1.080813895052941</v>
       </c>
       <c r="I15">
-        <v>43.65722565995543</v>
+        <v>46.5672054216374</v>
       </c>
       <c r="J15">
-        <v>4.567715090058598</v>
+        <v>4.872176912088483</v>
       </c>
       <c r="K15">
-        <v>6125.39729007038</v>
+        <v>6533.686682648897</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.567715090058598</v>
+        <v>4.872176912088483</v>
       </c>
       <c r="N15">
         <v>0.78</v>
@@ -4982,13 +5974,13 @@
         <v>0.357</v>
       </c>
       <c r="P15">
-        <v>13368858.38639018</v>
+        <v>13821288.62304984</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>13368858.38639018</v>
+        <v>13821288.62304984</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4999,13 +5991,13 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F16">
         <v>164.5454545454546</v>
@@ -5014,22 +6006,22 @@
         <v>102.2437736363636</v>
       </c>
       <c r="H16">
-        <v>1.078016879141922</v>
+        <v>1.080382838725112</v>
       </c>
       <c r="I16">
-        <v>43.34561663549169</v>
+        <v>46.21452990370442</v>
       </c>
       <c r="J16">
-        <v>4.535112440171318</v>
+        <v>4.835277607086737</v>
       </c>
       <c r="K16">
-        <v>6081.676484518541</v>
+        <v>6484.203976655456</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.535112440171318</v>
+        <v>4.835277607086737</v>
       </c>
       <c r="N16">
         <v>0.78</v>
@@ -5038,13 +6030,13 @@
         <v>0.357</v>
       </c>
       <c r="P16">
-        <v>13320496.96029245</v>
+        <v>13766378.89844108</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>13320496.96029245</v>
+        <v>13766378.89844108</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5055,13 +6047,13 @@
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F17">
         <v>176.3636363636364</v>
@@ -5070,22 +6062,22 @@
         <v>109.5872490909091</v>
       </c>
       <c r="H17">
-        <v>1.07762926882562</v>
+        <v>1.079958067053708</v>
       </c>
       <c r="I17">
-        <v>43.03781300414266</v>
+        <v>45.8671596518249</v>
       </c>
       <c r="J17">
-        <v>4.50290793632495</v>
+        <v>4.798933375006892</v>
       </c>
       <c r="K17">
-        <v>6038.489600770485</v>
+        <v>6435.465634551742</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.50290793632495</v>
+        <v>4.798933375006892</v>
       </c>
       <c r="N17">
         <v>0.78</v>
@@ -5094,13 +6086,13 @@
         <v>0.357</v>
       </c>
       <c r="P17">
-        <v>13272742.48141564</v>
+        <v>13712316.03442293</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>13272742.48141564</v>
+        <v>13712316.03442293</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5111,13 +6103,13 @@
         <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F18">
         <v>188.1818181818182</v>
@@ -5126,22 +6118,22 @@
         <v>116.9307245454546</v>
       </c>
       <c r="H18">
-        <v>1.077245660430853</v>
+        <v>1.07953621846633</v>
       </c>
       <c r="I18">
-        <v>42.73375197897406</v>
+        <v>45.5231987074373</v>
       </c>
       <c r="J18">
-        <v>4.471095009324524</v>
+        <v>4.762945847803322</v>
       </c>
       <c r="K18">
-        <v>5995.827829404374</v>
+        <v>6387.205640821211</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.471095009324524</v>
+        <v>4.762945847803322</v>
       </c>
       <c r="N18">
         <v>0.78</v>
@@ -5150,13 +6142,13 @@
         <v>0.357</v>
       </c>
       <c r="P18">
-        <v>13225584.61073265</v>
+        <v>13658804.17366352</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>13225584.61073265</v>
+        <v>13658804.17366352</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5164,13 +6156,13 @@
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -5179,16 +6171,16 @@
         <v>124.2742</v>
       </c>
       <c r="H19">
-        <v>1.076865990751112</v>
+        <v>1.079117617085772</v>
       </c>
       <c r="I19">
-        <v>42.43336869759374</v>
+        <v>45.18279777798941</v>
       </c>
       <c r="J19">
-        <v>4.439666872826589</v>
+        <v>4.727330793511513</v>
       </c>
       <c r="K19">
-        <v>5953.682069797912</v>
+        <v>6339.445140714809</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5220,13 +6212,13 @@
         <v>120</v>
       </c>
       <c r="C20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" t="s">
         <v>217</v>
       </c>
-      <c r="D20" t="s">
-        <v>192</v>
-      </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F20">
         <v>225</v>
@@ -5235,22 +6227,22 @@
         <v>139.808475</v>
       </c>
       <c r="H20">
-        <v>1.186188299951521</v>
+        <v>1.19272395719977</v>
       </c>
       <c r="I20">
-        <v>98.40370813965991</v>
+        <v>104.8014397498095</v>
       </c>
       <c r="J20">
-        <v>10.29566345072477</v>
+        <v>10.96503752972471</v>
       </c>
       <c r="K20">
-        <v>13806.69060069093</v>
+        <v>14704.33462811143</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>10.29566345072477</v>
+        <v>10.96503752972471</v>
       </c>
       <c r="N20">
         <v>0.78</v>
@@ -5259,13 +6251,13 @@
         <v>0.357</v>
       </c>
       <c r="P20">
-        <v>22124009.45187851</v>
+        <v>23180699.79078414</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>22124009.45187851</v>
+        <v>23180699.79078414</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5276,13 +6268,13 @@
         <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F21">
         <v>250</v>
@@ -5291,22 +6283,22 @@
         <v>155.34275</v>
       </c>
       <c r="H21">
-        <v>1.183751280539622</v>
+        <v>1.190008562321277</v>
       </c>
       <c r="I21">
-        <v>96.6906764324379</v>
+        <v>102.844139755454</v>
       </c>
       <c r="J21">
-        <v>10.11643445345012</v>
+        <v>10.76025152729694</v>
       </c>
       <c r="K21">
-        <v>13566.34093076568</v>
+        <v>14429.71250313574</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>10.11643445345012</v>
+        <v>10.76025152729694</v>
       </c>
       <c r="N21">
         <v>0.78</v>
@@ -5315,13 +6307,13 @@
         <v>0.357</v>
       </c>
       <c r="P21">
-        <v>21842265.93001374</v>
+        <v>22856674.08461615</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>21842265.93001374</v>
+        <v>22856674.08461615</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -5332,37 +6324,37 @@
         <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F22">
-        <v>275</v>
+        <v>275.0000000000001</v>
       </c>
       <c r="G22">
         <v>170.877025</v>
       </c>
       <c r="H22">
-        <v>1.181382896543911</v>
+        <v>1.187389899534217</v>
       </c>
       <c r="I22">
-        <v>95.03060900637685</v>
+        <v>100.9553975683921</v>
       </c>
       <c r="J22">
-        <v>9.942746938544905</v>
+        <v>10.56263850771869</v>
       </c>
       <c r="K22">
-        <v>13333.42249952749</v>
+        <v>14164.70949162092</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.942746938544905</v>
+        <v>10.56263850771869</v>
       </c>
       <c r="N22">
         <v>0.78</v>
@@ -5371,13 +6363,13 @@
         <v>0.357</v>
       </c>
       <c r="P22">
-        <v>21569713.78852382</v>
+        <v>22544621.02891821</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>21569713.78852382</v>
+        <v>22544621.02891821</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -5385,31 +6377,31 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G23">
         <v>186.4113</v>
       </c>
       <c r="H23">
-        <v>1.179080153480951</v>
+        <v>1.184836931439307</v>
       </c>
       <c r="I23">
-        <v>93.42112246529292</v>
+        <v>99.11865815175565</v>
       </c>
       <c r="J23">
-        <v>9.774351538933002</v>
+        <v>10.37046637073447</v>
       </c>
       <c r="K23">
-        <v>13107.60090073994</v>
+        <v>13907.00281248234</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -5441,37 +6433,37 @@
         <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F24">
-        <v>325</v>
+        <v>325.0000000000001</v>
       </c>
       <c r="G24">
         <v>201.945575</v>
       </c>
       <c r="H24">
-        <v>1.176840233526701</v>
+        <v>1.182369645573903</v>
       </c>
       <c r="I24">
-        <v>91.85997466585449</v>
+        <v>97.34329398462164</v>
       </c>
       <c r="J24">
-        <v>9.611013666369846</v>
+        <v>10.18471572868198</v>
       </c>
       <c r="K24">
-        <v>12888.56154687529</v>
+        <v>13657.9074864771</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>9.611013666369846</v>
+        <v>10.18471572868198</v>
       </c>
       <c r="N24">
         <v>0.78</v>
@@ -5480,13 +6472,13 @@
         <v>0.357</v>
       </c>
       <c r="P24">
-        <v>21050468.48036759</v>
+        <v>21949543.0340986</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>21050468.48036759</v>
+        <v>21949543.0340986</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -5497,37 +6489,37 @@
         <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F25">
-        <v>350</v>
+        <v>350.0000000000001</v>
       </c>
       <c r="G25">
         <v>217.47985</v>
       </c>
       <c r="H25">
-        <v>1.174660482430941</v>
+        <v>1.179964718749242</v>
       </c>
       <c r="I25">
-        <v>90.34505433611126</v>
+        <v>95.61676243279747</v>
       </c>
       <c r="J25">
-        <v>9.45251242526254</v>
+        <v>10.00407428609111</v>
       </c>
       <c r="K25">
-        <v>12676.00821252557</v>
+        <v>13415.66369913389</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>9.45251242526254</v>
+        <v>10.00407428609111</v>
       </c>
       <c r="N25">
         <v>0.78</v>
@@ -5536,13 +6528,13 @@
         <v>0.357</v>
       </c>
       <c r="P25">
-        <v>20802983.36416621</v>
+        <v>21665895.26606861</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>20802983.36416621</v>
+        <v>21665895.26606861</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -5553,37 +6545,37 @@
         <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F26">
-        <v>375</v>
+        <v>375.0000000000001</v>
       </c>
       <c r="G26">
         <v>233.014125</v>
       </c>
       <c r="H26">
-        <v>1.172538397593501</v>
+        <v>1.177635693636663</v>
       </c>
       <c r="I26">
-        <v>88.8743716029788</v>
+        <v>93.94522192411806</v>
       </c>
       <c r="J26">
-        <v>9.298639621591017</v>
+        <v>9.829186379456615</v>
       </c>
       <c r="K26">
-        <v>12469.66170534598</v>
+        <v>13181.13551857891</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>9.298639621591017</v>
+        <v>9.829186379456615</v>
       </c>
       <c r="N26">
         <v>0.78</v>
@@ -5592,13 +6584,13 @@
         <v>0.357</v>
       </c>
       <c r="P26">
-        <v>20563101.75852742</v>
+        <v>21391769.05402897</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>20563101.75852742</v>
+        <v>21391769.05402897</v>
       </c>
     </row>
   </sheetData>
@@ -5608,7 +6600,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5616,15 +6608,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>4719848.27318464</v>
@@ -5632,15 +6624,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B3">
-        <v>4264560.242506059</v>
+        <v>4249638.30898944</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B4">
         <v>4719848.27318464</v>
@@ -5648,47 +6640,47 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B5">
-        <v>4267455.672162727</v>
+        <v>4569327.050521234</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="B6">
-        <v>4719848.27318464</v>
+        <v>4252802.159873962</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B7">
-        <v>4270305.863651348</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B8">
-        <v>4719848.27318464</v>
+        <v>4415849.20484682</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B9">
-        <v>4273117.307034354</v>
+        <v>4255945.102924068</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B10">
         <v>4719848.27318464</v>
@@ -5696,15 +6688,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="B11">
-        <v>4275891.540357508</v>
+        <v>4259033.617799386</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B12">
         <v>4719848.27318464</v>
@@ -5712,15 +6704,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="B13">
-        <v>4278629.402715996</v>
+        <v>4262080.743589859</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B14">
         <v>4719848.27318464</v>
@@ -5728,103 +6720,103 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B15">
-        <v>4281331.638272301</v>
+        <v>4498059.16417879</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="B16">
-        <v>4719848.27318464</v>
+        <v>4265082.431988919</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B17">
-        <v>4200151.609775594</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B18">
-        <v>4719848.27318464</v>
+        <v>4268050.030515389</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B19">
-        <v>4203973.957416575</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="B20">
-        <v>4719848.27318464</v>
+        <v>4184338.016808275</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B21">
-        <v>4385420.619109373</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B22">
-        <v>4262554.339323527</v>
+        <v>4549776.475029824</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="B23">
-        <v>4719848.27318464</v>
+        <v>4188497.183850276</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B24">
-        <v>4371814.045983383</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B25">
-        <v>4719848.27318464</v>
+        <v>4375910.529932729</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="B26">
-        <v>4373451.761412804</v>
+        <v>4249056.566156982</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B27">
         <v>4719848.27318464</v>
@@ -5832,15 +6824,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="B28">
-        <v>4375073.391477043</v>
+        <v>4361599.508825609</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B29">
         <v>4719848.27318464</v>
@@ -5848,23 +6840,23 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B30">
-        <v>4458097.612613845</v>
+        <v>4708388.696778437</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B31">
-        <v>4376679.205696463</v>
+        <v>4363396.277196881</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B32">
         <v>4719848.27318464</v>
@@ -5872,47 +6864,47 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B33">
-        <v>4378269.361553539</v>
+        <v>4580729.086936833</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="B34">
-        <v>4719848.27318464</v>
+        <v>4365168.370058776</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B35">
-        <v>4379844.172503073</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B36">
-        <v>4719848.27318464</v>
+        <v>4450796.311878185</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="B37">
-        <v>4381403.839953182</v>
+        <v>4366938.928883267</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B38">
         <v>4719848.27318464</v>
@@ -5920,15 +6912,15 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="B39">
-        <v>4382948.587588464</v>
+        <v>4368681.271126278</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B40">
         <v>4719848.27318464</v>
@@ -5936,47 +6928,47 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B41">
-        <v>3979004.238515535</v>
+        <v>4659001.675815244</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="B42">
-        <v>4719848.27318464</v>
+        <v>4370399.571217718</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B43">
-        <v>3987195.917568986</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="B44">
-        <v>4719848.27318464</v>
+        <v>4517919.910199916</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B45">
-        <v>3995189.270974188</v>
+        <v>4372107.38504912</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B46">
         <v>4719848.27318464</v>
@@ -5984,15 +6976,15 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="B47">
-        <v>4002991.874004852</v>
+        <v>4373803.372732345</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B48">
         <v>4719848.27318464</v>
@@ -6000,47 +6992,47 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B49">
-        <v>4010610.904285975</v>
+        <v>4226315.523689216</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B50">
-        <v>4719848.27318464</v>
+        <v>3957200.863362981</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B51">
-        <v>4018053.168364861</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B52">
-        <v>4719848.27318464</v>
+        <v>4482360.259830136</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B53">
-        <v>4025325.126129414</v>
+        <v>3966230.515163621</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B54">
         <v>4719848.27318464</v>
@@ -6048,10 +7040,138 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55">
+        <v>4237440.127799142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56">
+        <v>3974977.616902517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58">
+        <v>4487491.893684486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59">
+        <v>3983542.501035226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>224</v>
       </c>
-      <c r="B55">
-        <v>4032432.913278187</v>
+      <c r="B61">
+        <v>4248020.493977764</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62">
+        <v>3991855.077515714</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64">
+        <v>4492382.359707165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65">
+        <v>3999991.01514464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67">
+        <v>4258096.727613424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68">
+        <v>4007901.848329046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70">
+        <v>4497048.736084362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71">
+        <v>4015640.993765987</v>
       </c>
     </row>
   </sheetData>
@@ -6069,36 +7189,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660272798607</v>
+        <v>8.112660272798458</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -6107,21 +7227,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520400000022</v>
+        <v>1150.520400000001</v>
       </c>
       <c r="G2">
-        <v>1.926857487073102E-12</v>
+        <v>8.758443123059551E-14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642722411</v>
+        <v>21.09291642722414</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -6130,21 +7250,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353</v>
+        <v>2991.353000000003</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.010589604635734E-13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.2253205455969</v>
+        <v>16.22532054559692</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -6153,10 +7273,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.0408</v>
+        <v>2301.040800000002</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8.758443123059551E-14</v>
       </c>
     </row>
   </sheetData>
